--- a/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.956867129390831</v>
+        <v>8.956867129390906</v>
       </c>
       <c r="D2">
-        <v>12.26621338262971</v>
+        <v>12.26621338262996</v>
       </c>
       <c r="E2">
-        <v>50.29373787310961</v>
+        <v>50.29373787310987</v>
       </c>
       <c r="F2">
-        <v>65.45272701654689</v>
+        <v>65.45272701654815</v>
       </c>
       <c r="G2">
-        <v>54.59252786352054</v>
+        <v>54.59252786352159</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.60848644307663</v>
+        <v>35.6084864430769</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>116.2712585522632</v>
+        <v>116.2712585522639</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.838029890186007</v>
+        <v>7.838029890186091</v>
       </c>
       <c r="D3">
-        <v>10.4144526378486</v>
+        <v>10.4144526378485</v>
       </c>
       <c r="E3">
-        <v>43.85870778256612</v>
+        <v>43.85870778256614</v>
       </c>
       <c r="F3">
-        <v>51.13743682900298</v>
+        <v>51.13743682900274</v>
       </c>
       <c r="G3">
-        <v>43.11635087848144</v>
+        <v>43.11635087848128</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.52373001070948</v>
+        <v>30.5237300107095</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.277398011170054</v>
+        <v>7.277398011169985</v>
       </c>
       <c r="D4">
-        <v>9.545913136929272</v>
+        <v>9.545913136929311</v>
       </c>
       <c r="E4">
-        <v>40.75429754483768</v>
+        <v>40.75429754483774</v>
       </c>
       <c r="F4">
-        <v>44.97297658105667</v>
+        <v>44.97297658105644</v>
       </c>
       <c r="G4">
-        <v>38.13002095564737</v>
+        <v>38.13002095564721</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.1732815197003</v>
+        <v>28.17328151970037</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>94.44742399524723</v>
+        <v>94.44742399524738</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,25 +529,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.059951859878094</v>
+        <v>7.059951859878061</v>
       </c>
       <c r="D5">
-        <v>9.217225061872607</v>
+        <v>9.217225061872535</v>
       </c>
       <c r="E5">
-        <v>39.56097010575832</v>
+        <v>39.56097010575849</v>
       </c>
       <c r="F5">
         <v>42.73196026244246</v>
       </c>
       <c r="G5">
-        <v>36.30797887944559</v>
+        <v>36.30797887944556</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.28423221706198</v>
+        <v>27.2842322170621</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>91.68998254457679</v>
+        <v>91.68998254457711</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.024267982347186</v>
+        <v>7.024267982347141</v>
       </c>
       <c r="D6">
-        <v>9.16368372847767</v>
+        <v>9.16368372847743</v>
       </c>
       <c r="E6">
-        <v>39.3655573892925</v>
+        <v>39.36555738929253</v>
       </c>
       <c r="F6">
-        <v>42.37179585068171</v>
+        <v>42.37179585068093</v>
       </c>
       <c r="G6">
-        <v>36.0146005686639</v>
+        <v>36.01460056866322</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.13934849061419</v>
+        <v>27.1393484906142</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>91.23813207138086</v>
+        <v>91.23813207138076</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,25 +605,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.274432841071709</v>
+        <v>7.274432841071696</v>
       </c>
       <c r="D7">
-        <v>9.54140225446802</v>
+        <v>9.541402254468082</v>
       </c>
       <c r="E7">
-        <v>40.7379925085851</v>
+        <v>40.73799250858487</v>
       </c>
       <c r="F7">
-        <v>44.94187508639943</v>
+        <v>44.94187508639907</v>
       </c>
       <c r="G7">
-        <v>38.10477226346552</v>
+        <v>38.10477226346524</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.16108304088563</v>
+        <v>28.16108304088547</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>94.40977106779259</v>
+        <v>94.40977106779216</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D8">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E8">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F8">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G8">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D9">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E9">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F9">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G9">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D10">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E10">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F10">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G10">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D11">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E11">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F11">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G11">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D12">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E12">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F12">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G12">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D13">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E13">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F13">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G13">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D14">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E14">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F14">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G14">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D15">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E15">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F15">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G15">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D16">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E16">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F16">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G16">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D17">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E17">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F17">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G17">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D18">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E18">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F18">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G18">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D19">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E19">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F19">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G19">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D20">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E20">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F20">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G20">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D21">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E21">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F21">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G21">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D22">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E22">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F22">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G22">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D23">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E23">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F23">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G23">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D24">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E24">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F24">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G24">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.518697156083539</v>
+        <v>8.518697156083581</v>
       </c>
       <c r="D25">
-        <v>11.5184068075128</v>
+        <v>11.51840680751272</v>
       </c>
       <c r="E25">
-        <v>47.71797002419958</v>
+        <v>47.71797002419952</v>
       </c>
       <c r="F25">
-        <v>59.47508563321811</v>
+        <v>59.47508563321752</v>
       </c>
       <c r="G25">
-        <v>49.81491685632862</v>
+        <v>49.81491685632813</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.53417811463652</v>
+        <v>33.53417811463644</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>110.4350244781052</v>
+        <v>110.435024478105</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.956867129390906</v>
+        <v>8.956867129390831</v>
       </c>
       <c r="D2">
-        <v>12.26621338262996</v>
+        <v>12.26621338262971</v>
       </c>
       <c r="E2">
-        <v>50.29373787310987</v>
+        <v>50.29373787310961</v>
       </c>
       <c r="F2">
-        <v>65.45272701654815</v>
+        <v>65.45272701654689</v>
       </c>
       <c r="G2">
-        <v>54.59252786352159</v>
+        <v>54.59252786352054</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.6084864430769</v>
+        <v>35.60848644307663</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>116.2712585522639</v>
+        <v>116.2712585522632</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.838029890186091</v>
+        <v>7.838029890186007</v>
       </c>
       <c r="D3">
-        <v>10.4144526378485</v>
+        <v>10.4144526378486</v>
       </c>
       <c r="E3">
-        <v>43.85870778256614</v>
+        <v>43.85870778256612</v>
       </c>
       <c r="F3">
-        <v>51.13743682900274</v>
+        <v>51.13743682900298</v>
       </c>
       <c r="G3">
-        <v>43.11635087848128</v>
+        <v>43.11635087848144</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.5237300107095</v>
+        <v>30.52373001070948</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.277398011169985</v>
+        <v>7.277398011170054</v>
       </c>
       <c r="D4">
-        <v>9.545913136929311</v>
+        <v>9.545913136929272</v>
       </c>
       <c r="E4">
-        <v>40.75429754483774</v>
+        <v>40.75429754483768</v>
       </c>
       <c r="F4">
-        <v>44.97297658105644</v>
+        <v>44.97297658105667</v>
       </c>
       <c r="G4">
-        <v>38.13002095564721</v>
+        <v>38.13002095564737</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.17328151970037</v>
+        <v>28.1732815197003</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>94.44742399524738</v>
+        <v>94.44742399524723</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,25 +529,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.059951859878061</v>
+        <v>7.059951859878094</v>
       </c>
       <c r="D5">
-        <v>9.217225061872535</v>
+        <v>9.217225061872607</v>
       </c>
       <c r="E5">
-        <v>39.56097010575849</v>
+        <v>39.56097010575832</v>
       </c>
       <c r="F5">
         <v>42.73196026244246</v>
       </c>
       <c r="G5">
-        <v>36.30797887944556</v>
+        <v>36.30797887944559</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.2842322170621</v>
+        <v>27.28423221706198</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>91.68998254457711</v>
+        <v>91.68998254457679</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.024267982347141</v>
+        <v>7.024267982347186</v>
       </c>
       <c r="D6">
-        <v>9.16368372847743</v>
+        <v>9.16368372847767</v>
       </c>
       <c r="E6">
-        <v>39.36555738929253</v>
+        <v>39.3655573892925</v>
       </c>
       <c r="F6">
-        <v>42.37179585068093</v>
+        <v>42.37179585068171</v>
       </c>
       <c r="G6">
-        <v>36.01460056866322</v>
+        <v>36.0146005686639</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.1393484906142</v>
+        <v>27.13934849061419</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>91.23813207138076</v>
+        <v>91.23813207138086</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,25 +605,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.274432841071696</v>
+        <v>7.274432841071709</v>
       </c>
       <c r="D7">
-        <v>9.541402254468082</v>
+        <v>9.54140225446802</v>
       </c>
       <c r="E7">
-        <v>40.73799250858487</v>
+        <v>40.7379925085851</v>
       </c>
       <c r="F7">
-        <v>44.94187508639907</v>
+        <v>44.94187508639943</v>
       </c>
       <c r="G7">
-        <v>38.10477226346524</v>
+        <v>38.10477226346552</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.16108304088547</v>
+        <v>28.16108304088563</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>94.40977106779216</v>
+        <v>94.40977106779259</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D8">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E8">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F8">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G8">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D9">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E9">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F9">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G9">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D10">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E10">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F10">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G10">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D11">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E11">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F11">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G11">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D12">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E12">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F12">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G12">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D13">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E13">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F13">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G13">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D14">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E14">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F14">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G14">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D15">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E15">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F15">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G15">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D16">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E16">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F16">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G16">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D17">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E17">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F17">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G17">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D18">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E18">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F18">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G18">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D19">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E19">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F19">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G19">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D20">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E20">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F20">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G20">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D21">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E21">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F21">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G21">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D22">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E22">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F22">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G22">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D23">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E23">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F23">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G23">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D24">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E24">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F24">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G24">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.518697156083581</v>
+        <v>8.518697156083539</v>
       </c>
       <c r="D25">
-        <v>11.51840680751272</v>
+        <v>11.5184068075128</v>
       </c>
       <c r="E25">
-        <v>47.71797002419952</v>
+        <v>47.71797002419958</v>
       </c>
       <c r="F25">
-        <v>59.47508563321752</v>
+        <v>59.47508563321811</v>
       </c>
       <c r="G25">
-        <v>49.81491685632813</v>
+        <v>49.81491685632862</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.53417811463644</v>
+        <v>33.53417811463652</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>110.435024478105</v>
+        <v>110.4350244781052</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.956867129390831</v>
+        <v>8.951257099328132</v>
       </c>
       <c r="D2">
-        <v>12.26621338262971</v>
+        <v>12.24078983492269</v>
       </c>
       <c r="E2">
-        <v>50.29373787310961</v>
+        <v>50.27082126982987</v>
       </c>
       <c r="F2">
-        <v>65.45272701654689</v>
+        <v>65.31212231090944</v>
       </c>
       <c r="G2">
-        <v>54.59252786352054</v>
+        <v>54.60742848307291</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>53.46533035319075</v>
       </c>
       <c r="I2">
-        <v>35.60848644307663</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>35.59101998867812</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>116.2712585522632</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>116.2126096850809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.838029890186007</v>
+        <v>7.835683909422015</v>
       </c>
       <c r="D3">
-        <v>10.4144526378486</v>
+        <v>10.39816312128298</v>
       </c>
       <c r="E3">
-        <v>43.85870778256612</v>
+        <v>43.85095196762297</v>
       </c>
       <c r="F3">
-        <v>51.13743682900298</v>
+        <v>51.06030239337617</v>
       </c>
       <c r="G3">
-        <v>43.11635087848144</v>
+        <v>43.15482832463427</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>42.09847001386012</v>
       </c>
       <c r="I3">
-        <v>30.52373001070948</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>30.52017570734396</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>101.6014823578684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>101.5810794508663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.277398011170054</v>
+        <v>7.275772103749039</v>
       </c>
       <c r="D4">
-        <v>9.545913136929272</v>
+        <v>9.53219355446446</v>
       </c>
       <c r="E4">
-        <v>40.75429754483768</v>
+        <v>40.7489602792397</v>
       </c>
       <c r="F4">
-        <v>44.97297658105667</v>
+        <v>44.91083310691604</v>
       </c>
       <c r="G4">
-        <v>38.13002095564737</v>
+        <v>38.16880373856126</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>37.17942170948033</v>
       </c>
       <c r="I4">
-        <v>28.1732815197003</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>28.1719116058175</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>94.44742399524723</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>94.43404584331986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.059951859878094</v>
+        <v>7.058538206517376</v>
       </c>
       <c r="D5">
-        <v>9.217225061872607</v>
+        <v>9.204348428982509</v>
       </c>
       <c r="E5">
-        <v>39.56097010575832</v>
+        <v>39.55626832576043</v>
       </c>
       <c r="F5">
-        <v>42.73196026244246</v>
+        <v>42.67444727710806</v>
       </c>
       <c r="G5">
-        <v>36.30797887944559</v>
+        <v>36.34621239553871</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>35.38819197038414</v>
       </c>
       <c r="I5">
-        <v>27.28423221706198</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>27.28341922398521</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>91.68998254457679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>91.67855131763956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.024267982347186</v>
+        <v>7.022886425504011</v>
       </c>
       <c r="D6">
-        <v>9.16368372847767</v>
+        <v>9.150939028081094</v>
       </c>
       <c r="E6">
-        <v>39.3655573892925</v>
+        <v>39.36094859321921</v>
       </c>
       <c r="F6">
-        <v>42.37179585068171</v>
+        <v>42.31499486860725</v>
       </c>
       <c r="G6">
-        <v>36.0146005686639</v>
+        <v>36.05271972188892</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>35.1001666396403</v>
       </c>
       <c r="I6">
-        <v>27.13934849061419</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>27.13861586999748</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>91.23813207138086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>91.22699013625852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.274432841071709</v>
+        <v>7.272810035376402</v>
       </c>
       <c r="D7">
-        <v>9.54140225446802</v>
+        <v>9.527694649164104</v>
       </c>
       <c r="E7">
-        <v>40.7379925085851</v>
+        <v>40.7326647868101</v>
       </c>
       <c r="F7">
-        <v>44.94187508639943</v>
+        <v>44.87979839176943</v>
       </c>
       <c r="G7">
-        <v>38.10477226346552</v>
+        <v>38.14354945924806</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>37.15457328944338</v>
       </c>
       <c r="I7">
-        <v>28.16108304088563</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>28.1597215737042</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>94.40977106779259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>94.3964217859435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D8">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E8">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F8">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G8">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I8">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D9">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E9">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F9">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G9">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I9">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D10">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E10">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F10">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G10">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I10">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D11">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E11">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F11">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G11">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I11">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D12">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E12">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F12">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G12">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I12">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D13">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E13">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F13">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G13">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I13">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D14">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E14">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F14">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G14">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I14">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D15">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E15">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F15">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G15">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I15">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D16">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E16">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F16">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G16">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I16">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D17">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E17">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F17">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G17">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I17">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D18">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E18">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F18">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G18">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I18">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D19">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E19">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F19">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G19">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I19">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D20">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E20">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F20">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G20">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I20">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D21">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E21">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F21">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G21">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I21">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D22">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E22">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F22">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G22">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I22">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D23">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E23">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F23">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G23">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I23">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D24">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E24">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F24">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G24">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I24">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>110.4350244781052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>110.3984061068499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.518697156083539</v>
+        <v>8.514872142239621</v>
       </c>
       <c r="D25">
-        <v>11.5184068075128</v>
+        <v>11.49765362020776</v>
       </c>
       <c r="E25">
-        <v>47.71797002419958</v>
+        <v>47.70408770051333</v>
       </c>
       <c r="F25">
-        <v>59.47508563321811</v>
+        <v>59.36880358065007</v>
       </c>
       <c r="G25">
-        <v>49.81491685632862</v>
+        <v>49.84588474267376</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>48.73069756687246</v>
       </c>
       <c r="I25">
-        <v>33.53417811463652</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>33.5249899757877</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>110.4350244781052</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>110.3984061068499</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,851 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>8.951257099328132</v>
+        <v>8.529233222787951</v>
       </c>
       <c r="D2">
-        <v>12.24078983492269</v>
+        <v>9.68263429291482</v>
       </c>
       <c r="E2">
-        <v>50.27082126982987</v>
+        <v>6.252361289257443</v>
       </c>
       <c r="F2">
-        <v>65.31212231090944</v>
+        <v>95.21173529345391</v>
       </c>
       <c r="G2">
-        <v>54.60742848307291</v>
+        <v>1.936706405502934</v>
       </c>
       <c r="H2">
-        <v>53.46533035319075</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>35.59101998867812</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>8.461996183386855</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>116.2126096850809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.396077455053122</v>
+      </c>
+      <c r="O2">
+        <v>74.87650877538033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>7.835683909422015</v>
+        <v>8.194172523149785</v>
       </c>
       <c r="D3">
-        <v>10.39816312128298</v>
+        <v>8.740679837919242</v>
       </c>
       <c r="E3">
-        <v>43.85095196762297</v>
+        <v>6.355528406787342</v>
       </c>
       <c r="F3">
-        <v>51.06030239337617</v>
+        <v>87.99036615485154</v>
       </c>
       <c r="G3">
-        <v>43.15482832463427</v>
+        <v>1.994128561045563</v>
       </c>
       <c r="H3">
-        <v>42.09847001386012</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>30.52017570734396</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
+        <v>8.279384682042412</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>101.5810794508663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.505454202348392</v>
+      </c>
+      <c r="O3">
+        <v>69.20332626034292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>7.275772103749039</v>
+        <v>8.016110515868533</v>
       </c>
       <c r="D4">
-        <v>9.53219355446446</v>
+        <v>8.180512336043154</v>
       </c>
       <c r="E4">
-        <v>40.7489602792397</v>
+        <v>6.42134022617636</v>
       </c>
       <c r="F4">
-        <v>44.91083310691604</v>
+        <v>83.8470608251907</v>
       </c>
       <c r="G4">
-        <v>38.16880373856126</v>
+        <v>2.026866572903759</v>
       </c>
       <c r="H4">
-        <v>37.17942170948033</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>28.1719116058175</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
+        <v>8.191489754695926</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>94.43404584331986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>4.568627133223713</v>
+      </c>
+      <c r="O4">
+        <v>65.9502240499677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>7.058538206517376</v>
+        <v>7.948959912134263</v>
       </c>
       <c r="D5">
-        <v>9.204348428982509</v>
+        <v>7.953976853822903</v>
       </c>
       <c r="E5">
-        <v>39.55626832576043</v>
+        <v>6.448839314431543</v>
       </c>
       <c r="F5">
-        <v>42.67444727710806</v>
+        <v>82.20948876098547</v>
       </c>
       <c r="G5">
-        <v>36.34621239553871</v>
+        <v>2.039808930669593</v>
       </c>
       <c r="H5">
-        <v>35.38819197038414</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>27.28341922398521</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
+        <v>8.160461201856306</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>91.67855131763956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4.593761467717352</v>
+      </c>
+      <c r="O5">
+        <v>64.66490961041882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>7.022886425504011</v>
+        <v>7.93810259912707</v>
       </c>
       <c r="D6">
-        <v>9.150939028081094</v>
+        <v>7.916404149445162</v>
       </c>
       <c r="E6">
-        <v>39.36094859321921</v>
+        <v>6.453447910901781</v>
       </c>
       <c r="F6">
-        <v>42.31499486860725</v>
+        <v>81.94017813980038</v>
       </c>
       <c r="G6">
-        <v>36.05271972188892</v>
+        <v>2.0419390283622</v>
       </c>
       <c r="H6">
-        <v>35.1001666396403</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>27.13861586999748</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
+        <v>8.155569353028641</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>91.22699013625852</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4.59790681156901</v>
+      </c>
+      <c r="O6">
+        <v>64.45355426200436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>7.272810035376402</v>
+        <v>8.01518458034478</v>
       </c>
       <c r="D7">
-        <v>9.527694649164104</v>
+        <v>8.177453065166377</v>
       </c>
       <c r="E7">
-        <v>40.7326647868101</v>
+        <v>6.421708272665165</v>
       </c>
       <c r="F7">
-        <v>44.87979839176943</v>
+        <v>83.82479205108304</v>
       </c>
       <c r="G7">
-        <v>38.14354945924806</v>
+        <v>2.027042491799853</v>
       </c>
       <c r="H7">
-        <v>37.15457328944338</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>28.1597215737042</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+        <v>8.191053254999463</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>94.3964217859435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4.568968165689273</v>
+      </c>
+      <c r="O7">
+        <v>65.93274385609647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
-        <v>8.514872142239621</v>
+        <v>8.40678433583013</v>
       </c>
       <c r="D8">
-        <v>11.49765362020776</v>
+        <v>9.351898664843178</v>
       </c>
       <c r="E8">
-        <v>47.70408770051333</v>
+        <v>6.287467183031126</v>
       </c>
       <c r="F8">
-        <v>59.36880358065007</v>
+        <v>92.64411227520682</v>
       </c>
       <c r="G8">
-        <v>49.84588474267376</v>
+        <v>1.957208059233452</v>
       </c>
       <c r="H8">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
+        <v>8.393017824399777</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.434916560035579</v>
+      </c>
+      <c r="O8">
+        <v>72.8588909202338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D9">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E9">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F9">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G9">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H9">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O9">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D10">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E10">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F10">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G10">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H10">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O10">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D11">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E11">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F11">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G11">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H11">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O11">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D12">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E12">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F12">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G12">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H12">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O12">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D13">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E13">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F13">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G13">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H13">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O13">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D14">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E14">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F14">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G14">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H14">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O14">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D15">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E15">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F15">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G15">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H15">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O15">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D16">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E16">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F16">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G16">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H16">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O16">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D17">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E17">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F17">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G17">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H17">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O17">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D18">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E18">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F18">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G18">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H18">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O18">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D19">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E19">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F19">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G19">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H19">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O19">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D20">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E20">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F20">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G20">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H20">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O20">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D21">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E21">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F21">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G21">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H21">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O21">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D22">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E22">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F22">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G22">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H22">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O22">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D23">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E23">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F23">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G23">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H23">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O23">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D24">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E24">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F24">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G24">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H24">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>110.3984061068499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O24">
+        <v>91.16249863377047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
-        <v>8.514872142239621</v>
+        <v>9.548835968549961</v>
       </c>
       <c r="D25">
-        <v>11.49765362020776</v>
+        <v>12.08764121985927</v>
       </c>
       <c r="E25">
-        <v>47.70408770051333</v>
+        <v>6.03758525616293</v>
       </c>
       <c r="F25">
-        <v>59.36880358065007</v>
+        <v>115.3663547039347</v>
       </c>
       <c r="G25">
-        <v>49.84588474267376</v>
+        <v>1.776545419200933</v>
       </c>
       <c r="H25">
-        <v>48.73069756687246</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>33.5249899757877</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
+        <v>9.108745936599778</v>
       </c>
       <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>110.3984061068499</v>
+        <v>4.101437047420382</v>
+      </c>
+      <c r="O25">
+        <v>91.16249863377047</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
@@ -420,840 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>8.529233222787951</v>
+        <v>7.168149894069728</v>
       </c>
       <c r="D2">
-        <v>9.68263429291482</v>
+        <v>5.622369185389868</v>
       </c>
       <c r="E2">
-        <v>6.252361289257443</v>
+        <v>10.17985557345923</v>
       </c>
       <c r="F2">
-        <v>95.21173529345391</v>
+        <v>31.64544489371596</v>
       </c>
       <c r="G2">
-        <v>1.936706405502934</v>
+        <v>41.28948580733793</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12.30940141955988</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.461996183386855</v>
+        <v>6.543312757784096</v>
+      </c>
+      <c r="K2">
+        <v>23.12625870821963</v>
       </c>
       <c r="L2">
-        <v>4.396077455053122</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>11.75447511171676</v>
       </c>
       <c r="O2">
-        <v>74.87650877538033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>8.194172523149785</v>
+        <v>6.659947487199762</v>
       </c>
       <c r="D3">
-        <v>8.740679837919242</v>
+        <v>5.397248560882718</v>
       </c>
       <c r="E3">
-        <v>6.355528406787342</v>
+        <v>9.758247522595044</v>
       </c>
       <c r="F3">
-        <v>87.99036615485154</v>
+        <v>30.46679822402314</v>
       </c>
       <c r="G3">
-        <v>1.994128561045563</v>
+        <v>39.43655766553561</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.09866583127509</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.279384682042412</v>
+        <v>6.418523708525875</v>
+      </c>
+      <c r="K3">
+        <v>21.51208096033811</v>
       </c>
       <c r="L3">
-        <v>4.505454202348392</v>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.01048415089404</v>
       </c>
       <c r="O3">
-        <v>69.20332626034292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>8.016110515868533</v>
+        <v>6.331805058735135</v>
       </c>
       <c r="D4">
-        <v>8.180512336043154</v>
+        <v>5.256291065070337</v>
       </c>
       <c r="E4">
-        <v>6.42134022617636</v>
+        <v>9.497408208646636</v>
       </c>
       <c r="F4">
-        <v>83.8470608251907</v>
+        <v>29.76043371860506</v>
       </c>
       <c r="G4">
-        <v>2.026866572903759</v>
+        <v>38.31647377562843</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.98162493765323</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.191489754695926</v>
+        <v>6.345559993881221</v>
+      </c>
+      <c r="K4">
+        <v>20.46706762888884</v>
       </c>
       <c r="L4">
-        <v>4.568627133223713</v>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.17021694601873</v>
       </c>
       <c r="O4">
-        <v>65.9502240499677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>7.948959912134263</v>
+        <v>6.193977648818418</v>
       </c>
       <c r="D5">
-        <v>7.953976853822903</v>
+        <v>5.198234559803703</v>
       </c>
       <c r="E5">
-        <v>6.448839314431543</v>
+        <v>9.390744918131229</v>
       </c>
       <c r="F5">
-        <v>82.20948876098547</v>
+        <v>29.47715912844884</v>
       </c>
       <c r="G5">
-        <v>2.039808930669593</v>
+        <v>37.86489961948264</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.93694043034938</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.160461201856306</v>
+        <v>6.316742134392604</v>
+      </c>
+      <c r="K5">
+        <v>20.02750409019942</v>
       </c>
       <c r="L5">
-        <v>4.593761467717352</v>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.23599554443726</v>
       </c>
       <c r="O5">
-        <v>64.66490961041882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>7.93810259912707</v>
+        <v>6.170841856490964</v>
       </c>
       <c r="D6">
-        <v>7.916404149445162</v>
+        <v>5.188559456879673</v>
       </c>
       <c r="E6">
-        <v>6.453447910901781</v>
+        <v>9.373015303809215</v>
       </c>
       <c r="F6">
-        <v>81.94017813980038</v>
+        <v>29.43040457285393</v>
       </c>
       <c r="G6">
-        <v>2.0419390283622</v>
+        <v>37.79022409449104</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.92969953206094</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.155569353028641</v>
+        <v>6.312012104818088</v>
+      </c>
+      <c r="K6">
+        <v>19.95368224029245</v>
       </c>
       <c r="L6">
-        <v>4.59790681156901</v>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.24696079578826</v>
       </c>
       <c r="O6">
-        <v>64.45355426200436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>8.01518458034478</v>
+        <v>6.329962971765081</v>
       </c>
       <c r="D7">
-        <v>8.177453065166377</v>
+        <v>5.255510483431614</v>
       </c>
       <c r="E7">
-        <v>6.421708272665165</v>
+        <v>9.49597102479605</v>
       </c>
       <c r="F7">
-        <v>83.82479205108304</v>
+        <v>29.75659455558571</v>
       </c>
       <c r="G7">
-        <v>2.027042491799853</v>
+        <v>38.31036335092916</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.98101024716622</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.191053254999463</v>
+        <v>6.345167645552252</v>
+      </c>
+      <c r="K7">
+        <v>20.46119524518752</v>
       </c>
       <c r="L7">
-        <v>4.568968165689273</v>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.17110122073928</v>
       </c>
       <c r="O7">
-        <v>65.93274385609647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>8.40678433583013</v>
+        <v>6.996228756087233</v>
       </c>
       <c r="D8">
-        <v>9.351898664843178</v>
+        <v>5.545354863804201</v>
       </c>
       <c r="E8">
-        <v>6.287467183031126</v>
+        <v>10.034964046619</v>
       </c>
       <c r="F8">
-        <v>92.64411227520682</v>
+        <v>31.23557398226627</v>
       </c>
       <c r="G8">
-        <v>1.957208059233452</v>
+        <v>40.64718091644472</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12.23412054903585</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.393017824399777</v>
+        <v>6.499523967852178</v>
+      </c>
+      <c r="K8">
+        <v>22.58077978819718</v>
       </c>
       <c r="L8">
-        <v>4.434916560035579</v>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>11.8422485378234</v>
       </c>
       <c r="O8">
-        <v>72.8588909202338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>9.548835968549961</v>
+        <v>8.177738008295005</v>
       </c>
       <c r="D9">
-        <v>12.08764121985927</v>
+        <v>6.089405275037118</v>
       </c>
       <c r="E9">
-        <v>6.03758525616293</v>
+        <v>11.07175692162304</v>
       </c>
       <c r="F9">
-        <v>115.3663547039347</v>
+        <v>34.26542819899633</v>
       </c>
       <c r="G9">
-        <v>1.776545419200933</v>
+        <v>45.35432355590131</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.83251625539943</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.108745936599778</v>
+        <v>6.831453307623053</v>
+      </c>
+      <c r="K9">
+        <v>26.31717398204476</v>
       </c>
       <c r="L9">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>11.21526267722355</v>
       </c>
       <c r="O9">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>9.548835968549961</v>
+        <v>8.973663443583584</v>
       </c>
       <c r="D10">
-        <v>12.08764121985927</v>
+        <v>6.471448222511947</v>
       </c>
       <c r="E10">
-        <v>6.03758525616293</v>
+        <v>11.81664764071051</v>
       </c>
       <c r="F10">
-        <v>115.3663547039347</v>
+        <v>36.56332832105352</v>
       </c>
       <c r="G10">
-        <v>1.776545419200933</v>
+        <v>48.87567981513751</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>13.33980770802</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.108745936599778</v>
+        <v>7.093593598664939</v>
+      </c>
+      <c r="K10">
+        <v>28.81751067641919</v>
       </c>
       <c r="L10">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>10.76209499367174</v>
       </c>
       <c r="O10">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>9.548835968549961</v>
+        <v>9.321082454740798</v>
       </c>
       <c r="D11">
-        <v>12.08764121985927</v>
+        <v>6.641010141763405</v>
       </c>
       <c r="E11">
-        <v>6.03758525616293</v>
+        <v>12.15134578527699</v>
       </c>
       <c r="F11">
-        <v>115.3663547039347</v>
+        <v>37.62402369987626</v>
       </c>
       <c r="G11">
-        <v>1.776545419200933</v>
+        <v>50.49093308193547</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>13.58648115694534</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.108745936599778</v>
+        <v>7.216977270982413</v>
+      </c>
+      <c r="K11">
+        <v>29.90456735402412</v>
       </c>
       <c r="L11">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10.55672795987899</v>
       </c>
       <c r="O11">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>9.548835968549961</v>
+        <v>9.450624919300166</v>
       </c>
       <c r="D12">
-        <v>12.08764121985927</v>
+        <v>6.704589127256397</v>
       </c>
       <c r="E12">
-        <v>6.03758525616293</v>
+        <v>12.27747591618544</v>
       </c>
       <c r="F12">
-        <v>115.3663547039347</v>
+        <v>38.02796255347162</v>
       </c>
       <c r="G12">
-        <v>1.776545419200933</v>
+        <v>51.10464633911246</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>13.68228421737838</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.108745936599778</v>
+        <v>7.264313505575783</v>
+      </c>
+      <c r="K12">
+        <v>30.30921591448939</v>
       </c>
       <c r="L12">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>10.47899764120196</v>
       </c>
       <c r="O12">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>9.548835968549961</v>
+        <v>9.422813847632195</v>
       </c>
       <c r="D13">
-        <v>12.08764121985927</v>
+        <v>6.690924546484486</v>
       </c>
       <c r="E13">
-        <v>6.03758525616293</v>
+        <v>12.25033878446378</v>
       </c>
       <c r="F13">
-        <v>115.3663547039347</v>
+        <v>37.94086387297111</v>
       </c>
       <c r="G13">
-        <v>1.776545419200933</v>
+        <v>50.97237736599303</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>13.66154305538492</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.108745936599778</v>
+        <v>7.254091139508321</v>
+      </c>
+      <c r="K13">
+        <v>30.22237459855264</v>
       </c>
       <c r="L13">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>10.49573783591471</v>
       </c>
       <c r="O13">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>9.548835968549961</v>
+        <v>9.331779883741991</v>
       </c>
       <c r="D14">
-        <v>12.08764121985927</v>
+        <v>6.646253551365612</v>
       </c>
       <c r="E14">
-        <v>6.03758525616293</v>
+        <v>12.16173487287059</v>
       </c>
       <c r="F14">
-        <v>115.3663547039347</v>
+        <v>37.65720968323802</v>
       </c>
       <c r="G14">
-        <v>1.776545419200933</v>
+        <v>50.54138126988998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>13.59431431837657</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.108745936599778</v>
+        <v>7.22085922306155</v>
+      </c>
+      <c r="K14">
+        <v>29.93799675774521</v>
       </c>
       <c r="L14">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>10.55033273421925</v>
       </c>
       <c r="O14">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>9.548835968549961</v>
+        <v>9.27575900344911</v>
       </c>
       <c r="D15">
-        <v>12.08764121985927</v>
+        <v>6.618808679807657</v>
       </c>
       <c r="E15">
-        <v>6.03758525616293</v>
+        <v>12.10738255949793</v>
       </c>
       <c r="F15">
-        <v>115.3663547039347</v>
+        <v>37.48376319453519</v>
       </c>
       <c r="G15">
-        <v>1.776545419200933</v>
+        <v>50.27765719727153</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>13.55344979206904</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.108745936599778</v>
+        <v>7.2005842894485</v>
+      </c>
+      <c r="K15">
+        <v>29.76290369707613</v>
       </c>
       <c r="L15">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>10.58377627371836</v>
       </c>
       <c r="O15">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>9.548835968549961</v>
+        <v>8.950671407427494</v>
       </c>
       <c r="D16">
-        <v>12.08764121985927</v>
+        <v>6.46027972006335</v>
       </c>
       <c r="E16">
-        <v>6.03758525616293</v>
+        <v>11.794688878481</v>
       </c>
       <c r="F16">
-        <v>115.3663547039347</v>
+        <v>36.49432242881816</v>
       </c>
       <c r="G16">
-        <v>1.776545419200933</v>
+        <v>48.77039610571657</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>13.32401587099457</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.108745936599778</v>
+        <v>7.085614858362659</v>
+      </c>
+      <c r="K16">
+        <v>28.7454760534539</v>
       </c>
       <c r="L16">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>10.77552569821296</v>
       </c>
       <c r="O16">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>9.548835968549961</v>
+        <v>8.747548990717675</v>
       </c>
       <c r="D17">
-        <v>12.08764121985927</v>
+        <v>6.361925055016473</v>
       </c>
       <c r="E17">
-        <v>6.03758525616293</v>
+        <v>11.60177890130859</v>
       </c>
       <c r="F17">
-        <v>115.3663547039347</v>
+        <v>35.89129020929976</v>
       </c>
       <c r="G17">
-        <v>1.776545419200933</v>
+        <v>47.84921261673912</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>13.1874111890057</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.108745936599778</v>
+        <v>7.016155322852778</v>
+      </c>
+      <c r="K17">
+        <v>28.10858630717807</v>
       </c>
       <c r="L17">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>10.89330673395039</v>
       </c>
       <c r="O17">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>9.548835968549961</v>
+        <v>8.629333465485672</v>
       </c>
       <c r="D18">
-        <v>12.08764121985927</v>
+        <v>6.304956510053529</v>
       </c>
       <c r="E18">
-        <v>6.03758525616293</v>
+        <v>11.49043045008016</v>
       </c>
       <c r="F18">
-        <v>115.3663547039347</v>
+        <v>35.5458797992563</v>
       </c>
       <c r="G18">
-        <v>1.776545419200933</v>
+        <v>47.3206145985351</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>13.11032988041047</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.108745936599778</v>
+        <v>6.976591736357298</v>
+      </c>
+      <c r="K18">
+        <v>27.73750815392211</v>
       </c>
       <c r="L18">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>10.96112963413748</v>
       </c>
       <c r="O18">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>9.548835968549961</v>
+        <v>8.589067281704251</v>
       </c>
       <c r="D19">
-        <v>12.08764121985927</v>
+        <v>6.285600480313917</v>
       </c>
       <c r="E19">
-        <v>6.03758525616293</v>
+        <v>11.45266333089027</v>
       </c>
       <c r="F19">
-        <v>115.3663547039347</v>
+        <v>35.42917603490739</v>
       </c>
       <c r="G19">
-        <v>1.776545419200933</v>
+        <v>47.14185211626442</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>13.08448433955349</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.108745936599778</v>
+        <v>6.963262300861111</v>
+      </c>
+      <c r="K19">
+        <v>27.61104351856095</v>
       </c>
       <c r="L19">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>10.98410893286311</v>
       </c>
       <c r="O19">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>9.548835968549961</v>
+        <v>8.769314429312141</v>
       </c>
       <c r="D20">
-        <v>12.08764121985927</v>
+        <v>6.372436409361522</v>
       </c>
       <c r="E20">
-        <v>6.03758525616293</v>
+        <v>11.6223552229676</v>
       </c>
       <c r="F20">
-        <v>115.3663547039347</v>
+        <v>35.95533499904963</v>
       </c>
       <c r="G20">
-        <v>1.776545419200933</v>
+        <v>47.94714510380875</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>13.20179803853775</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.108745936599778</v>
+        <v>7.023509166962781</v>
+      </c>
+      <c r="K20">
+        <v>28.17687483484767</v>
       </c>
       <c r="L20">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>10.88076115162184</v>
       </c>
       <c r="O20">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>9.548835968549961</v>
+        <v>9.358572766792012</v>
       </c>
       <c r="D21">
-        <v>12.08764121985927</v>
+        <v>6.6593917450654</v>
       </c>
       <c r="E21">
-        <v>6.03758525616293</v>
+        <v>12.18777662655554</v>
       </c>
       <c r="F21">
-        <v>115.3663547039347</v>
+        <v>37.74046305736839</v>
       </c>
       <c r="G21">
-        <v>1.776545419200933</v>
+        <v>50.66791784487999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>13.61399517180622</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.108745936599778</v>
+        <v>7.230603407183955</v>
+      </c>
+      <c r="K21">
+        <v>30.02171322280376</v>
       </c>
       <c r="L21">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>10.53429649222205</v>
       </c>
       <c r="O21">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>9.548835968549961</v>
+        <v>9.731975213073964</v>
       </c>
       <c r="D22">
-        <v>12.08764121985927</v>
+        <v>6.843255256820058</v>
       </c>
       <c r="E22">
-        <v>6.03758525616293</v>
+        <v>12.55374989754415</v>
       </c>
       <c r="F22">
-        <v>115.3663547039347</v>
+        <v>38.92051045231396</v>
       </c>
       <c r="G22">
-        <v>1.776545419200933</v>
+        <v>52.45822404866763</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>13.89739802740377</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.108745936599778</v>
+        <v>7.369541477225741</v>
+      </c>
+      <c r="K22">
+        <v>31.18677448117156</v>
       </c>
       <c r="L22">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>10.30804229325106</v>
       </c>
       <c r="O22">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>9.548835968549961</v>
+        <v>9.533723080826622</v>
       </c>
       <c r="D23">
-        <v>12.08764121985927</v>
+        <v>6.745465309337842</v>
       </c>
       <c r="E23">
-        <v>6.03758525616293</v>
+        <v>12.35874799904025</v>
       </c>
       <c r="F23">
-        <v>115.3663547039347</v>
+        <v>38.28942964655321</v>
       </c>
       <c r="G23">
-        <v>1.776545419200933</v>
+        <v>51.50151428762337</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>13.74482038011408</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.108745936599778</v>
+        <v>7.295051026315187</v>
+      </c>
+      <c r="K23">
+        <v>30.56859102988284</v>
       </c>
       <c r="L23">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>10.4288082698293</v>
       </c>
       <c r="O23">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>9.548835968549961</v>
+        <v>8.75947875940159</v>
       </c>
       <c r="D24">
-        <v>12.08764121985927</v>
+        <v>6.367685542262914</v>
       </c>
       <c r="E24">
-        <v>6.03758525616293</v>
+        <v>11.61305404303317</v>
       </c>
       <c r="F24">
-        <v>115.3663547039347</v>
+        <v>35.92637636393582</v>
       </c>
       <c r="G24">
-        <v>1.776545419200933</v>
+        <v>47.90286671130313</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>13.19528922114506</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.108745936599778</v>
+        <v>7.020183344073434</v>
+      </c>
+      <c r="K24">
+        <v>28.14601693988759</v>
       </c>
       <c r="L24">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>10.88643266428348</v>
       </c>
       <c r="O24">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>9.548835968549961</v>
+        <v>7.871089868014279</v>
       </c>
       <c r="D25">
-        <v>12.08764121985927</v>
+        <v>5.945160264507906</v>
       </c>
       <c r="E25">
-        <v>6.03758525616293</v>
+        <v>10.79398584291631</v>
       </c>
       <c r="F25">
-        <v>115.3663547039347</v>
+        <v>33.4328294179038</v>
       </c>
       <c r="G25">
-        <v>1.776545419200933</v>
+        <v>44.06930642262515</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12.65914583461634</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.108745936599778</v>
+        <v>6.738489496117605</v>
+      </c>
+      <c r="K25">
+        <v>25.3502373511382</v>
       </c>
       <c r="L25">
-        <v>4.101437047420382</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>11.38330153678994</v>
       </c>
       <c r="O25">
-        <v>91.16249863377047</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.168149894069728</v>
+        <v>4.914637720525094</v>
       </c>
       <c r="D2">
-        <v>5.622369185389868</v>
+        <v>7.912942445752905</v>
       </c>
       <c r="E2">
-        <v>10.17985557345923</v>
+        <v>13.14134152479387</v>
       </c>
       <c r="F2">
-        <v>31.64544489371596</v>
+        <v>38.89455146160521</v>
       </c>
       <c r="G2">
-        <v>41.28948580733793</v>
+        <v>45.22471263314228</v>
       </c>
       <c r="H2">
-        <v>12.30940141955988</v>
+        <v>18.09119979066332</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.543312757784096</v>
+        <v>10.1262676216303</v>
       </c>
       <c r="K2">
-        <v>23.12625870821963</v>
+        <v>18.51904293839889</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.75447511171676</v>
+        <v>18.09965646904098</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.659947487199762</v>
+        <v>4.751909275302902</v>
       </c>
       <c r="D3">
-        <v>5.397248560882718</v>
+        <v>7.885275352881312</v>
       </c>
       <c r="E3">
-        <v>9.758247522595044</v>
+        <v>13.09793038102105</v>
       </c>
       <c r="F3">
-        <v>30.46679822402314</v>
+        <v>38.82990988504337</v>
       </c>
       <c r="G3">
-        <v>39.43655766553561</v>
+        <v>45.04017689995115</v>
       </c>
       <c r="H3">
-        <v>12.09866583127509</v>
+        <v>18.12522903229561</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.418523708525875</v>
+        <v>10.13507144662447</v>
       </c>
       <c r="K3">
-        <v>21.51208096033811</v>
+        <v>18.07559223717352</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.01048415089404</v>
+        <v>18.17064634286712</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.331805058735135</v>
+        <v>4.650741037524922</v>
       </c>
       <c r="D4">
-        <v>5.256291065070337</v>
+        <v>7.86924006798673</v>
       </c>
       <c r="E4">
-        <v>9.497408208646636</v>
+        <v>13.07394328694522</v>
       </c>
       <c r="F4">
-        <v>29.76043371860506</v>
+        <v>38.80229116503017</v>
       </c>
       <c r="G4">
-        <v>38.31647377562843</v>
+        <v>44.94382183208309</v>
       </c>
       <c r="H4">
-        <v>11.98162493765323</v>
+        <v>18.15054427988741</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.345559993881221</v>
+        <v>10.14228136800983</v>
       </c>
       <c r="K4">
-        <v>20.46706762888884</v>
+        <v>17.80187467045279</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.17021694601873</v>
+        <v>18.21623039557335</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.193977648818418</v>
+        <v>4.609272908125976</v>
       </c>
       <c r="D5">
-        <v>5.198234559803703</v>
+        <v>7.86294914221526</v>
       </c>
       <c r="E5">
-        <v>9.390744918131229</v>
+        <v>13.06484535954503</v>
       </c>
       <c r="F5">
-        <v>29.47715912844884</v>
+        <v>38.79407176859957</v>
       </c>
       <c r="G5">
-        <v>37.86489961948264</v>
+        <v>44.90883677420206</v>
       </c>
       <c r="H5">
-        <v>11.93694043034938</v>
+        <v>18.16196783370077</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.316742134392604</v>
+        <v>10.14567280870017</v>
       </c>
       <c r="K5">
-        <v>20.02750409019942</v>
+        <v>17.69014058998834</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.23599554443726</v>
+        <v>18.23530998413035</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.170841856490964</v>
+        <v>4.60237483953521</v>
       </c>
       <c r="D6">
-        <v>5.188559456879673</v>
+        <v>7.861919365724727</v>
       </c>
       <c r="E6">
-        <v>9.373015303809215</v>
+        <v>13.06337571310413</v>
       </c>
       <c r="F6">
-        <v>29.43040457285393</v>
+        <v>38.79289021454581</v>
       </c>
       <c r="G6">
-        <v>37.79022409449104</v>
+        <v>44.90328644317236</v>
       </c>
       <c r="H6">
-        <v>11.92969953206094</v>
+        <v>18.16393145626756</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.312012104818088</v>
+        <v>10.14626332202989</v>
       </c>
       <c r="K6">
-        <v>19.95368224029245</v>
+        <v>17.67158070583631</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.24696079578826</v>
+        <v>18.23850861186716</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.329962971765081</v>
+        <v>4.650182659469445</v>
       </c>
       <c r="D7">
-        <v>5.255510483431614</v>
+        <v>7.869154234856659</v>
       </c>
       <c r="E7">
-        <v>9.49597102479605</v>
+        <v>13.07381784023313</v>
       </c>
       <c r="F7">
-        <v>29.75659455558571</v>
+        <v>38.80216802752668</v>
       </c>
       <c r="G7">
-        <v>38.31036335092916</v>
+        <v>44.94333266191063</v>
       </c>
       <c r="H7">
-        <v>11.98101024716622</v>
+        <v>18.15069386424156</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.345167645552252</v>
+        <v>10.14232527120623</v>
       </c>
       <c r="K7">
-        <v>20.46119524518752</v>
+        <v>17.80036833453956</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.17110122073928</v>
+        <v>18.21648566768591</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.996228756087233</v>
+        <v>4.858831426776708</v>
       </c>
       <c r="D8">
-        <v>5.545354863804201</v>
+        <v>7.903207673248414</v>
       </c>
       <c r="E8">
-        <v>10.034964046619</v>
+        <v>13.12582367672213</v>
       </c>
       <c r="F8">
-        <v>31.23557398226627</v>
+        <v>38.86975856143363</v>
       </c>
       <c r="G8">
-        <v>40.64718091644472</v>
+        <v>45.15757963440393</v>
       </c>
       <c r="H8">
-        <v>12.23412054903585</v>
+        <v>18.10201293392737</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.499523967852178</v>
+        <v>10.12892849757793</v>
       </c>
       <c r="K8">
-        <v>22.58077978819718</v>
+        <v>18.36653906478169</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.8422485378234</v>
+        <v>18.1237206032998</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.177738008295005</v>
+        <v>5.255092439530973</v>
       </c>
       <c r="D9">
-        <v>6.089405275037118</v>
+        <v>7.977355230868094</v>
       </c>
       <c r="E9">
-        <v>11.07175692162304</v>
+        <v>13.24866687459411</v>
       </c>
       <c r="F9">
-        <v>34.26542819899633</v>
+        <v>39.09794308494839</v>
       </c>
       <c r="G9">
-        <v>45.35432355590131</v>
+        <v>45.71107788472106</v>
       </c>
       <c r="H9">
-        <v>12.83251625539943</v>
+        <v>18.04181219566996</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.831453307623053</v>
+        <v>10.11698712295761</v>
       </c>
       <c r="K9">
-        <v>26.31717398204476</v>
+        <v>19.45829814968292</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.21526267722355</v>
+        <v>17.95756259141567</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.973663443583584</v>
+        <v>5.534793147820904</v>
       </c>
       <c r="D10">
-        <v>6.471448222511947</v>
+        <v>8.036059772814584</v>
       </c>
       <c r="E10">
-        <v>11.81664764071051</v>
+        <v>13.35118266172513</v>
       </c>
       <c r="F10">
-        <v>36.56332832105352</v>
+        <v>39.32349712871724</v>
       </c>
       <c r="G10">
-        <v>48.87567981513751</v>
+        <v>46.197032538785</v>
       </c>
       <c r="H10">
-        <v>13.33980770802</v>
+        <v>18.0193111195871</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.093593598664939</v>
+        <v>10.11696180851819</v>
       </c>
       <c r="K10">
-        <v>28.81751067641919</v>
+        <v>20.24019641207874</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.76209499367174</v>
+        <v>17.84497298019231</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.321082454740798</v>
+        <v>5.658912867591104</v>
       </c>
       <c r="D11">
-        <v>6.641010141763405</v>
+        <v>8.063623988087187</v>
       </c>
       <c r="E11">
-        <v>12.15134578527699</v>
+        <v>13.40037190907282</v>
       </c>
       <c r="F11">
-        <v>37.62402369987626</v>
+        <v>39.43852811574425</v>
       </c>
       <c r="G11">
-        <v>50.49093308193547</v>
+        <v>46.43475692294935</v>
       </c>
       <c r="H11">
-        <v>13.58648115694534</v>
+        <v>18.01383533135715</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.216977270982413</v>
+        <v>10.11884983375654</v>
       </c>
       <c r="K11">
-        <v>29.90456735402412</v>
+        <v>20.58980123911294</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.55672795987899</v>
+        <v>17.79578805207119</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.450624919300166</v>
+        <v>5.705419481936253</v>
       </c>
       <c r="D12">
-        <v>6.704589127256397</v>
+        <v>8.074180011999948</v>
       </c>
       <c r="E12">
-        <v>12.27747591618544</v>
+        <v>13.41935555324273</v>
       </c>
       <c r="F12">
-        <v>38.02796255347162</v>
+        <v>39.48385586041784</v>
       </c>
       <c r="G12">
-        <v>51.10464633911246</v>
+        <v>46.52711540988822</v>
       </c>
       <c r="H12">
-        <v>13.68228421737838</v>
+        <v>18.01244909779535</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.264313505575783</v>
+        <v>10.11983765010056</v>
       </c>
       <c r="K12">
-        <v>30.30921591448939</v>
+        <v>20.72118312110181</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.47899764120196</v>
+        <v>17.77745343241186</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.422813847632195</v>
+        <v>5.695426144131155</v>
       </c>
       <c r="D13">
-        <v>6.690924546484486</v>
+        <v>8.071901422136554</v>
       </c>
       <c r="E13">
-        <v>12.25033878446378</v>
+        <v>13.41525139377867</v>
       </c>
       <c r="F13">
-        <v>37.94086387297111</v>
+        <v>39.47401541902772</v>
       </c>
       <c r="G13">
-        <v>50.97237736599303</v>
+        <v>46.50712139088222</v>
       </c>
       <c r="H13">
-        <v>13.66154305538492</v>
+        <v>18.01271703796294</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.254091139508321</v>
+        <v>10.11961277671466</v>
       </c>
       <c r="K13">
-        <v>30.22237459855264</v>
+        <v>20.69293439672498</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.49573783591471</v>
+        <v>17.78138922030506</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.331779883741991</v>
+        <v>5.662749160003263</v>
       </c>
       <c r="D14">
-        <v>6.646253551365612</v>
+        <v>8.064490104611219</v>
       </c>
       <c r="E14">
-        <v>12.16173487287059</v>
+        <v>13.40192661775544</v>
       </c>
       <c r="F14">
-        <v>37.65720968323802</v>
+        <v>39.44222194170322</v>
       </c>
       <c r="G14">
-        <v>50.54138126988998</v>
+        <v>46.44230882091296</v>
       </c>
       <c r="H14">
-        <v>13.59431431837657</v>
+        <v>18.01370749518539</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.22085922306155</v>
+        <v>10.11892563561211</v>
       </c>
       <c r="K14">
-        <v>29.93799675774521</v>
+        <v>20.60063097916178</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.55033273421925</v>
+        <v>17.79427383628862</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.27575900344911</v>
+        <v>5.642667829780258</v>
       </c>
       <c r="D15">
-        <v>6.618808679807657</v>
+        <v>8.059965666806841</v>
       </c>
       <c r="E15">
-        <v>12.10738255949793</v>
+        <v>13.3938109430113</v>
       </c>
       <c r="F15">
-        <v>37.48376319453519</v>
+        <v>39.42297715510551</v>
       </c>
       <c r="G15">
-        <v>50.27765719727153</v>
+        <v>46.40291181929101</v>
       </c>
       <c r="H15">
-        <v>13.55344979206904</v>
+        <v>18.01440376662605</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.2005842894485</v>
+        <v>10.11854026548274</v>
       </c>
       <c r="K15">
-        <v>29.76290369707613</v>
+        <v>20.54395776128884</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.58377627371836</v>
+        <v>17.80220383760948</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.950671407427494</v>
+        <v>5.526614802503761</v>
       </c>
       <c r="D16">
-        <v>6.46027972006335</v>
+        <v>8.034275209606552</v>
       </c>
       <c r="E16">
-        <v>11.794688878481</v>
+        <v>13.34801853822917</v>
       </c>
       <c r="F16">
-        <v>36.49432242881816</v>
+        <v>39.31622808329558</v>
       </c>
       <c r="G16">
-        <v>48.77039610571657</v>
+        <v>46.18182709436318</v>
       </c>
       <c r="H16">
-        <v>13.32401587099457</v>
+        <v>18.01976501156364</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.085614858362659</v>
+        <v>10.11687662381356</v>
       </c>
       <c r="K16">
-        <v>28.7454760534539</v>
+        <v>20.21721505635589</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.77552569821296</v>
+        <v>17.84822809177997</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.747548990717675</v>
+        <v>5.454586777997713</v>
       </c>
       <c r="D17">
-        <v>6.361925055016473</v>
+        <v>8.018731150315901</v>
       </c>
       <c r="E17">
-        <v>11.60177890130859</v>
+        <v>13.32057327052257</v>
       </c>
       <c r="F17">
-        <v>35.89129020929976</v>
+        <v>39.25391109083663</v>
       </c>
       <c r="G17">
-        <v>47.84921261673912</v>
+        <v>46.05042639224381</v>
       </c>
       <c r="H17">
-        <v>13.1874111890057</v>
+        <v>18.0242752736622</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.016155322852778</v>
+        <v>10.11634239153832</v>
       </c>
       <c r="K17">
-        <v>28.10858630717807</v>
+        <v>20.01511424670651</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.89330673395039</v>
+        <v>17.87698191333041</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.629333465485672</v>
+        <v>5.41286716579518</v>
       </c>
       <c r="D18">
-        <v>6.304956510053529</v>
+        <v>8.009871832532433</v>
       </c>
       <c r="E18">
-        <v>11.49043045008016</v>
+        <v>13.30502857189963</v>
       </c>
       <c r="F18">
-        <v>35.5458797992563</v>
+        <v>39.21923886306441</v>
       </c>
       <c r="G18">
-        <v>47.3206145985351</v>
+        <v>45.9764202970504</v>
       </c>
       <c r="H18">
-        <v>13.11032988041047</v>
+        <v>18.02731735241346</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.976591736357298</v>
+        <v>10.11621393558697</v>
       </c>
       <c r="K18">
-        <v>27.73750815392211</v>
+        <v>19.8983056880923</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.96112963413748</v>
+        <v>17.89371177105831</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.589067281704251</v>
+        <v>5.398693146527951</v>
       </c>
       <c r="D19">
-        <v>6.285600480313917</v>
+        <v>8.006886333379638</v>
       </c>
       <c r="E19">
-        <v>11.45266333089027</v>
+        <v>13.29980712430595</v>
       </c>
       <c r="F19">
-        <v>35.42917603490739</v>
+        <v>39.20770105698225</v>
       </c>
       <c r="G19">
-        <v>47.14185211626442</v>
+        <v>45.95163480120353</v>
       </c>
       <c r="H19">
-        <v>13.08448433955349</v>
+        <v>18.02842418138199</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.963262300861111</v>
+        <v>10.11620116160111</v>
       </c>
       <c r="K19">
-        <v>27.61104351856095</v>
+        <v>19.85866334210809</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.98410893286311</v>
+        <v>17.8994091404793</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.769314429312141</v>
+        <v>5.462284754863303</v>
       </c>
       <c r="D20">
-        <v>6.372436409361522</v>
+        <v>8.020377475970227</v>
       </c>
       <c r="E20">
-        <v>11.6223552229676</v>
+        <v>13.32346998853699</v>
       </c>
       <c r="F20">
-        <v>35.95533499904963</v>
+        <v>39.26042378770493</v>
       </c>
       <c r="G20">
-        <v>47.94714510380875</v>
+        <v>46.06425191885764</v>
       </c>
       <c r="H20">
-        <v>13.20179803853775</v>
+        <v>18.02374877147001</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.023509166962781</v>
+        <v>10.11638075591562</v>
       </c>
       <c r="K20">
-        <v>28.17687483484767</v>
+        <v>20.03668773215578</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.88076115162184</v>
+        <v>17.87390122078703</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.358572766792012</v>
+        <v>5.672360957066889</v>
       </c>
       <c r="D21">
-        <v>6.6593917450654</v>
+        <v>8.066663828882627</v>
       </c>
       <c r="E21">
-        <v>12.18777662655554</v>
+        <v>13.40583083255582</v>
       </c>
       <c r="F21">
-        <v>37.74046305736839</v>
+        <v>39.45151263853495</v>
       </c>
       <c r="G21">
-        <v>50.66791784487999</v>
+        <v>46.46128290091738</v>
       </c>
       <c r="H21">
-        <v>13.61399517180622</v>
+        <v>18.01339789937125</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.230603407183955</v>
+        <v>10.11912006323719</v>
       </c>
       <c r="K21">
-        <v>30.02171322280376</v>
+        <v>20.62777102325771</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.53429649222205</v>
+        <v>17.79048143725486</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.731975213073964</v>
+        <v>5.806755654592219</v>
       </c>
       <c r="D22">
-        <v>6.843255256820058</v>
+        <v>8.097600087297746</v>
       </c>
       <c r="E22">
-        <v>12.55374989754415</v>
+        <v>13.46173248798899</v>
       </c>
       <c r="F22">
-        <v>38.92051045231396</v>
+        <v>39.58669463924371</v>
       </c>
       <c r="G22">
-        <v>52.45822404866763</v>
+        <v>46.73435884258183</v>
       </c>
       <c r="H22">
-        <v>13.89739802740377</v>
+        <v>18.01064031262935</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.369541477225741</v>
+        <v>10.12250057135777</v>
       </c>
       <c r="K22">
-        <v>31.18677448117156</v>
+        <v>21.00816143351914</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.30804229325106</v>
+        <v>17.73765513755459</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.533723080826622</v>
+        <v>5.735306280777866</v>
       </c>
       <c r="D23">
-        <v>6.745465309337842</v>
+        <v>8.081027961576231</v>
       </c>
       <c r="E23">
-        <v>12.35874799904025</v>
+        <v>13.4317105784165</v>
       </c>
       <c r="F23">
-        <v>38.28942964655321</v>
+        <v>39.51361052762708</v>
       </c>
       <c r="G23">
-        <v>51.50151428762337</v>
+        <v>46.5873900510048</v>
       </c>
       <c r="H23">
-        <v>13.74482038011408</v>
+        <v>18.01174458697509</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.295051026315187</v>
+        <v>10.12055095921403</v>
       </c>
       <c r="K23">
-        <v>30.56859102988284</v>
+        <v>20.80572195228962</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.4288082698293</v>
+        <v>17.76569512561295</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.75947875940159</v>
+        <v>5.458805460746182</v>
       </c>
       <c r="D24">
-        <v>6.367685542262914</v>
+        <v>8.019632931368454</v>
       </c>
       <c r="E24">
-        <v>11.61305404303317</v>
+        <v>13.32215965282236</v>
       </c>
       <c r="F24">
-        <v>35.92637636393582</v>
+        <v>39.25747579943157</v>
       </c>
       <c r="G24">
-        <v>47.90286671130313</v>
+        <v>46.05799660341713</v>
       </c>
       <c r="H24">
-        <v>13.19528922114506</v>
+        <v>18.02398540448201</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.020183344073434</v>
+        <v>10.11636285479523</v>
       </c>
       <c r="K24">
-        <v>28.14601693988759</v>
+        <v>20.02693627458472</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.88643266428348</v>
+        <v>17.87529338217018</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.871089868014279</v>
+        <v>5.149664822497439</v>
       </c>
       <c r="D25">
-        <v>5.945160264507906</v>
+        <v>7.956533910917879</v>
       </c>
       <c r="E25">
-        <v>10.79398584291631</v>
+        <v>13.21324545198774</v>
       </c>
       <c r="F25">
-        <v>33.4328294179038</v>
+        <v>39.02600215954847</v>
       </c>
       <c r="G25">
-        <v>44.06930642262515</v>
+        <v>45.54724398654066</v>
       </c>
       <c r="H25">
-        <v>12.65914583461634</v>
+        <v>18.05429771905179</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.738489496117605</v>
+        <v>10.11868169046499</v>
       </c>
       <c r="K25">
-        <v>25.3502373511382</v>
+        <v>19.16588604837041</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.38330153678994</v>
+        <v>18.00083836519124</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.914637720525094</v>
+        <v>7.168149894069721</v>
       </c>
       <c r="D2">
-        <v>7.912942445752905</v>
+        <v>5.622369185389897</v>
       </c>
       <c r="E2">
-        <v>13.14134152479387</v>
+        <v>10.17985557345926</v>
       </c>
       <c r="F2">
-        <v>38.89455146160521</v>
+        <v>31.64544489371581</v>
       </c>
       <c r="G2">
-        <v>45.22471263314228</v>
+        <v>41.28948580733785</v>
       </c>
       <c r="H2">
-        <v>18.09119979066332</v>
+        <v>12.3094014195598</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.1262676216303</v>
+        <v>6.543312757784101</v>
       </c>
       <c r="K2">
-        <v>18.51904293839889</v>
+        <v>23.12625870821977</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.09965646904098</v>
+        <v>11.75447511171669</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.751909275302902</v>
+        <v>6.659947487199791</v>
       </c>
       <c r="D3">
-        <v>7.885275352881312</v>
+        <v>5.397248560882704</v>
       </c>
       <c r="E3">
-        <v>13.09793038102105</v>
+        <v>9.758247522594973</v>
       </c>
       <c r="F3">
-        <v>38.82990988504337</v>
+        <v>30.46679822402321</v>
       </c>
       <c r="G3">
-        <v>45.04017689995115</v>
+        <v>39.43655766553565</v>
       </c>
       <c r="H3">
-        <v>18.12522903229561</v>
+        <v>12.09866583127516</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.13507144662447</v>
+        <v>6.418523708525756</v>
       </c>
       <c r="K3">
-        <v>18.07559223717352</v>
+        <v>21.5120809603381</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.17064634286712</v>
+        <v>12.01048415089414</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.650741037524922</v>
+        <v>6.331805058735267</v>
       </c>
       <c r="D4">
-        <v>7.86924006798673</v>
+        <v>5.256291065070274</v>
       </c>
       <c r="E4">
-        <v>13.07394328694522</v>
+        <v>9.497408208646581</v>
       </c>
       <c r="F4">
-        <v>38.80229116503017</v>
+        <v>29.76043371860472</v>
       </c>
       <c r="G4">
-        <v>44.94382183208309</v>
+        <v>38.31647377562806</v>
       </c>
       <c r="H4">
-        <v>18.15054427988741</v>
+        <v>11.98162493765306</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.14228136800983</v>
+        <v>6.345559993881252</v>
       </c>
       <c r="K4">
-        <v>17.80187467045279</v>
+        <v>20.46706762888897</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.21623039557335</v>
+        <v>12.1702169460186</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.609272908125976</v>
+        <v>6.193977648818426</v>
       </c>
       <c r="D5">
-        <v>7.86294914221526</v>
+        <v>5.198234559803658</v>
       </c>
       <c r="E5">
-        <v>13.06484535954503</v>
+        <v>9.390744918131196</v>
       </c>
       <c r="F5">
-        <v>38.79407176859957</v>
+        <v>29.4771591284488</v>
       </c>
       <c r="G5">
-        <v>44.90883677420206</v>
+        <v>37.86489961948261</v>
       </c>
       <c r="H5">
-        <v>18.16196783370077</v>
+        <v>11.93694043034939</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.14567280870017</v>
+        <v>6.316742134392639</v>
       </c>
       <c r="K5">
-        <v>17.69014058998834</v>
+        <v>20.02750409019943</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.23530998413035</v>
+        <v>12.23599554443729</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.60237483953521</v>
+        <v>6.170841856490958</v>
       </c>
       <c r="D6">
-        <v>7.861919365724727</v>
+        <v>5.188559456879728</v>
       </c>
       <c r="E6">
-        <v>13.06337571310413</v>
+        <v>9.373015303809238</v>
       </c>
       <c r="F6">
-        <v>38.79289021454581</v>
+        <v>29.43040457285386</v>
       </c>
       <c r="G6">
-        <v>44.90328644317236</v>
+        <v>37.79022409449085</v>
       </c>
       <c r="H6">
-        <v>18.16393145626756</v>
+        <v>11.92969953206095</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.14626332202989</v>
+        <v>6.312012104818095</v>
       </c>
       <c r="K6">
-        <v>17.67158070583631</v>
+        <v>19.9536822402925</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.23850861186716</v>
+        <v>12.24696079578826</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.650182659469445</v>
+        <v>6.32996297176514</v>
       </c>
       <c r="D7">
-        <v>7.869154234856659</v>
+        <v>5.255510483431696</v>
       </c>
       <c r="E7">
-        <v>13.07381784023313</v>
+        <v>9.495971024796122</v>
       </c>
       <c r="F7">
-        <v>38.80216802752668</v>
+        <v>29.75659455558559</v>
       </c>
       <c r="G7">
-        <v>44.94333266191063</v>
+        <v>38.31036335092896</v>
       </c>
       <c r="H7">
-        <v>18.15069386424156</v>
+        <v>11.98101024716613</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.14232527120623</v>
+        <v>6.345167645552349</v>
       </c>
       <c r="K7">
-        <v>17.80036833453956</v>
+        <v>20.46119524518756</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.21648566768591</v>
+        <v>12.17110122073921</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.858831426776708</v>
+        <v>6.99622875608739</v>
       </c>
       <c r="D8">
-        <v>7.903207673248414</v>
+        <v>5.545354863804085</v>
       </c>
       <c r="E8">
-        <v>13.12582367672213</v>
+        <v>10.03496404661892</v>
       </c>
       <c r="F8">
-        <v>38.86975856143363</v>
+        <v>31.23557398226627</v>
       </c>
       <c r="G8">
-        <v>45.15757963440393</v>
+        <v>40.64718091644485</v>
       </c>
       <c r="H8">
-        <v>18.10201293392737</v>
+        <v>12.23412054903588</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.12892849757793</v>
+        <v>6.499523967852201</v>
       </c>
       <c r="K8">
-        <v>18.36653906478169</v>
+        <v>22.58077978819717</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.1237206032998</v>
+        <v>11.84224853782329</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.255092439530973</v>
+        <v>8.177738008294982</v>
       </c>
       <c r="D9">
-        <v>7.977355230868094</v>
+        <v>6.089405275037048</v>
       </c>
       <c r="E9">
-        <v>13.24866687459411</v>
+        <v>11.07175692162301</v>
       </c>
       <c r="F9">
-        <v>39.09794308494839</v>
+        <v>34.26542819899636</v>
       </c>
       <c r="G9">
-        <v>45.71107788472106</v>
+        <v>45.35432355590139</v>
       </c>
       <c r="H9">
-        <v>18.04181219566996</v>
+        <v>12.83251625539952</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.11698712295761</v>
+        <v>6.831453307623035</v>
       </c>
       <c r="K9">
-        <v>19.45829814968292</v>
+        <v>26.31717398204475</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.95756259141567</v>
+        <v>11.21526267722371</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.534793147820904</v>
+        <v>8.973663443583519</v>
       </c>
       <c r="D10">
-        <v>8.036059772814584</v>
+        <v>6.471448222512014</v>
       </c>
       <c r="E10">
-        <v>13.35118266172513</v>
+        <v>11.81664764071056</v>
       </c>
       <c r="F10">
-        <v>39.32349712871724</v>
+        <v>36.56332832105361</v>
       </c>
       <c r="G10">
-        <v>46.197032538785</v>
+        <v>48.87567981513762</v>
       </c>
       <c r="H10">
-        <v>18.0193111195871</v>
+        <v>13.33980770802001</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.11696180851819</v>
+        <v>7.093593598664964</v>
       </c>
       <c r="K10">
-        <v>20.24019641207874</v>
+        <v>28.81751067641922</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.84497298019231</v>
+        <v>10.76209499367177</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.658912867591104</v>
+        <v>9.321082454740798</v>
       </c>
       <c r="D11">
-        <v>8.063623988087187</v>
+        <v>6.641010141763381</v>
       </c>
       <c r="E11">
-        <v>13.40037190907282</v>
+        <v>12.15134578527696</v>
       </c>
       <c r="F11">
-        <v>39.43852811574425</v>
+        <v>37.62402369987627</v>
       </c>
       <c r="G11">
-        <v>46.43475692294935</v>
+        <v>50.49093308193552</v>
       </c>
       <c r="H11">
-        <v>18.01383533135715</v>
+        <v>13.58648115694535</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.11884983375654</v>
+        <v>7.21697727098239</v>
       </c>
       <c r="K11">
-        <v>20.58980123911294</v>
+        <v>29.90456735402414</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.79578805207119</v>
+        <v>10.55672795987902</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.705419481936253</v>
+        <v>9.450624919300202</v>
       </c>
       <c r="D12">
-        <v>8.074180011999948</v>
+        <v>6.704589127256383</v>
       </c>
       <c r="E12">
-        <v>13.41935555324273</v>
+        <v>12.27747591618543</v>
       </c>
       <c r="F12">
-        <v>39.48385586041784</v>
+        <v>38.02796255347161</v>
       </c>
       <c r="G12">
-        <v>46.52711540988822</v>
+        <v>51.10464633911238</v>
       </c>
       <c r="H12">
-        <v>18.01244909779535</v>
+        <v>13.68228421737838</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.11983765010056</v>
+        <v>7.264313505575775</v>
       </c>
       <c r="K12">
-        <v>20.72118312110181</v>
+        <v>30.30921591448931</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.77745343241186</v>
+        <v>10.47899764120192</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.695426144131155</v>
+        <v>9.422813847632209</v>
       </c>
       <c r="D13">
-        <v>8.071901422136554</v>
+        <v>6.690924546484432</v>
       </c>
       <c r="E13">
-        <v>13.41525139377867</v>
+        <v>12.25033878446378</v>
       </c>
       <c r="F13">
-        <v>39.47401541902772</v>
+        <v>37.94086387297115</v>
       </c>
       <c r="G13">
-        <v>46.50712139088222</v>
+        <v>50.97237736599307</v>
       </c>
       <c r="H13">
-        <v>18.01271703796294</v>
+        <v>13.66154305538492</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.11961277671466</v>
+        <v>7.254091139508295</v>
       </c>
       <c r="K13">
-        <v>20.69293439672498</v>
+        <v>30.22237459855261</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.78138922030506</v>
+        <v>10.49573783591468</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.662749160003263</v>
+        <v>9.331779883741993</v>
       </c>
       <c r="D14">
-        <v>8.064490104611219</v>
+        <v>6.646253551365581</v>
       </c>
       <c r="E14">
-        <v>13.40192661775544</v>
+        <v>12.16173487287057</v>
       </c>
       <c r="F14">
-        <v>39.44222194170322</v>
+        <v>37.65720968323799</v>
       </c>
       <c r="G14">
-        <v>46.44230882091296</v>
+        <v>50.5413812698899</v>
       </c>
       <c r="H14">
-        <v>18.01370749518539</v>
+        <v>13.59431431837657</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.11892563561211</v>
+        <v>7.220859223061542</v>
       </c>
       <c r="K14">
-        <v>20.60063097916178</v>
+        <v>29.93799675774517</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.79427383628862</v>
+        <v>10.55033273421929</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.642667829780258</v>
+        <v>9.275759003449162</v>
       </c>
       <c r="D15">
-        <v>8.059965666806841</v>
+        <v>6.618808679807603</v>
       </c>
       <c r="E15">
-        <v>13.3938109430113</v>
+        <v>12.10738255949792</v>
       </c>
       <c r="F15">
-        <v>39.42297715510551</v>
+        <v>37.48376319453523</v>
       </c>
       <c r="G15">
-        <v>46.40291181929101</v>
+        <v>50.27765719727159</v>
       </c>
       <c r="H15">
-        <v>18.01440376662605</v>
+        <v>13.55344979206908</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.11854026548274</v>
+        <v>7.200584289448485</v>
       </c>
       <c r="K15">
-        <v>20.54395776128884</v>
+        <v>29.7629036970761</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.80220383760948</v>
+        <v>10.58377627371839</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.526614802503761</v>
+        <v>8.950671407427494</v>
       </c>
       <c r="D16">
-        <v>8.034275209606552</v>
+        <v>6.460279720063309</v>
       </c>
       <c r="E16">
-        <v>13.34801853822917</v>
+        <v>11.794688878481</v>
       </c>
       <c r="F16">
-        <v>39.31622808329558</v>
+        <v>36.49432242881811</v>
       </c>
       <c r="G16">
-        <v>46.18182709436318</v>
+        <v>48.77039610571654</v>
       </c>
       <c r="H16">
-        <v>18.01976501156364</v>
+        <v>13.32401587099452</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.11687662381356</v>
+        <v>7.085614858362662</v>
       </c>
       <c r="K16">
-        <v>20.21721505635589</v>
+        <v>28.74547605345391</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.84822809177997</v>
+        <v>10.77552569821296</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.454586777997713</v>
+        <v>8.747548990717718</v>
       </c>
       <c r="D17">
-        <v>8.018731150315901</v>
+        <v>6.361925055016544</v>
       </c>
       <c r="E17">
-        <v>13.32057327052257</v>
+        <v>11.60177890130863</v>
       </c>
       <c r="F17">
-        <v>39.25391109083663</v>
+        <v>35.89129020929976</v>
       </c>
       <c r="G17">
-        <v>46.05042639224381</v>
+        <v>47.84921261673914</v>
       </c>
       <c r="H17">
-        <v>18.0242752736622</v>
+        <v>13.18741118900564</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.11634239153832</v>
+        <v>7.01615532285278</v>
       </c>
       <c r="K17">
-        <v>20.01511424670651</v>
+        <v>28.10858630717814</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.87698191333041</v>
+        <v>10.89330673395029</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.41286716579518</v>
+        <v>8.629333465485672</v>
       </c>
       <c r="D18">
-        <v>8.009871832532433</v>
+        <v>6.304956510053571</v>
       </c>
       <c r="E18">
-        <v>13.30502857189963</v>
+        <v>11.49043045008021</v>
       </c>
       <c r="F18">
-        <v>39.21923886306441</v>
+        <v>35.54587979925627</v>
       </c>
       <c r="G18">
-        <v>45.9764202970504</v>
+        <v>47.3206145985351</v>
       </c>
       <c r="H18">
-        <v>18.02731735241346</v>
+        <v>13.11032988041045</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.11621393558697</v>
+        <v>6.976591736357348</v>
       </c>
       <c r="K18">
-        <v>19.8983056880923</v>
+        <v>27.73750815392215</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.89371177105831</v>
+        <v>10.96112963413741</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.398693146527951</v>
+        <v>8.589067281704219</v>
       </c>
       <c r="D19">
-        <v>8.006886333379638</v>
+        <v>6.285600480313833</v>
       </c>
       <c r="E19">
-        <v>13.29980712430595</v>
+        <v>11.45266333089027</v>
       </c>
       <c r="F19">
-        <v>39.20770105698225</v>
+        <v>35.42917603490744</v>
       </c>
       <c r="G19">
-        <v>45.95163480120353</v>
+        <v>47.1418521162645</v>
       </c>
       <c r="H19">
-        <v>18.02842418138199</v>
+        <v>13.0844843395535</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.11620116160111</v>
+        <v>6.963262300861134</v>
       </c>
       <c r="K19">
-        <v>19.85866334210809</v>
+        <v>27.61104351856094</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.8994091404793</v>
+        <v>10.98410893286314</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.462284754863303</v>
+        <v>8.769314429312118</v>
       </c>
       <c r="D20">
-        <v>8.020377475970227</v>
+        <v>6.372436409361478</v>
       </c>
       <c r="E20">
-        <v>13.32346998853699</v>
+        <v>11.62235522296755</v>
       </c>
       <c r="F20">
-        <v>39.26042378770493</v>
+        <v>35.95533499904968</v>
       </c>
       <c r="G20">
-        <v>46.06425191885764</v>
+        <v>47.94714510380874</v>
       </c>
       <c r="H20">
-        <v>18.02374877147001</v>
+        <v>13.2017980385378</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.11638075591562</v>
+        <v>7.023509166962767</v>
       </c>
       <c r="K20">
-        <v>20.03668773215578</v>
+        <v>28.1768748348475</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.87390122078703</v>
+        <v>10.88076115162194</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.672360957066889</v>
+        <v>9.35857276679196</v>
       </c>
       <c r="D21">
-        <v>8.066663828882627</v>
+        <v>6.659391745065432</v>
       </c>
       <c r="E21">
-        <v>13.40583083255582</v>
+        <v>12.18777662655552</v>
       </c>
       <c r="F21">
-        <v>39.45151263853495</v>
+        <v>37.74046305736842</v>
       </c>
       <c r="G21">
-        <v>46.46128290091738</v>
+        <v>50.66791784488004</v>
       </c>
       <c r="H21">
-        <v>18.01339789937125</v>
+        <v>13.61399517180625</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.11912006323719</v>
+        <v>7.230603407183946</v>
       </c>
       <c r="K21">
-        <v>20.62777102325771</v>
+        <v>30.02171322280372</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.79048143725486</v>
+        <v>10.53429649222205</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.806755654592219</v>
+        <v>9.731975213073877</v>
       </c>
       <c r="D22">
-        <v>8.097600087297746</v>
+        <v>6.843255256820036</v>
       </c>
       <c r="E22">
-        <v>13.46173248798899</v>
+        <v>12.55374989754415</v>
       </c>
       <c r="F22">
-        <v>39.58669463924371</v>
+        <v>38.9205104523139</v>
       </c>
       <c r="G22">
-        <v>46.73435884258183</v>
+        <v>52.45822404866749</v>
       </c>
       <c r="H22">
-        <v>18.01064031262935</v>
+        <v>13.89739802740376</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.12250057135777</v>
+        <v>7.369541477225755</v>
       </c>
       <c r="K22">
-        <v>21.00816143351914</v>
+        <v>31.18677448117151</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.73765513755459</v>
+        <v>10.30804229325114</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.735306280777866</v>
+        <v>9.533723080826602</v>
       </c>
       <c r="D23">
-        <v>8.081027961576231</v>
+        <v>6.745465309337859</v>
       </c>
       <c r="E23">
-        <v>13.4317105784165</v>
+        <v>12.35874799904022</v>
       </c>
       <c r="F23">
-        <v>39.51361052762708</v>
+        <v>38.28942964655325</v>
       </c>
       <c r="G23">
-        <v>46.5873900510048</v>
+        <v>51.50151428762331</v>
       </c>
       <c r="H23">
-        <v>18.01174458697509</v>
+        <v>13.74482038011414</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.12055095921403</v>
+        <v>7.295051026315156</v>
       </c>
       <c r="K23">
-        <v>20.80572195228962</v>
+        <v>30.56859102988269</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.76569512561295</v>
+        <v>10.42880826982943</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.458805460746182</v>
+        <v>8.759478759401542</v>
       </c>
       <c r="D24">
-        <v>8.019632931368454</v>
+        <v>6.367685542262938</v>
       </c>
       <c r="E24">
-        <v>13.32215965282236</v>
+        <v>11.61305404303316</v>
       </c>
       <c r="F24">
-        <v>39.25747579943157</v>
+        <v>35.92637636393579</v>
       </c>
       <c r="G24">
-        <v>46.05799660341713</v>
+        <v>47.90286671130314</v>
       </c>
       <c r="H24">
-        <v>18.02398540448201</v>
+        <v>13.19528922114503</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.11636285479523</v>
+        <v>7.020183344073434</v>
       </c>
       <c r="K24">
-        <v>20.02693627458472</v>
+        <v>28.14601693988761</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.87529338217018</v>
+        <v>10.88643266428344</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.149664822497439</v>
+        <v>7.871089868014279</v>
       </c>
       <c r="D25">
-        <v>7.956533910917879</v>
+        <v>5.945160264507845</v>
       </c>
       <c r="E25">
-        <v>13.21324545198774</v>
+        <v>10.79398584291631</v>
       </c>
       <c r="F25">
-        <v>39.02600215954847</v>
+        <v>33.43282941790388</v>
       </c>
       <c r="G25">
-        <v>45.54724398654066</v>
+        <v>44.06930642262529</v>
       </c>
       <c r="H25">
-        <v>18.05429771905179</v>
+        <v>12.65914583461639</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.11868169046499</v>
+        <v>6.738489496117605</v>
       </c>
       <c r="K25">
-        <v>19.16588604837041</v>
+        <v>25.35023735113818</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.00083836519124</v>
+        <v>11.38330153679007</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,995 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>7.168149894069721</v>
+        <v>9.049269854077963</v>
       </c>
       <c r="D2">
-        <v>5.622369185389897</v>
+        <v>5.76653322838024</v>
       </c>
       <c r="E2">
-        <v>10.17985557345926</v>
+        <v>9.950776176678239</v>
       </c>
       <c r="F2">
-        <v>31.64544489371581</v>
+        <v>30.36357434896576</v>
       </c>
       <c r="G2">
-        <v>41.28948580733785</v>
+        <v>39.68065027255957</v>
       </c>
       <c r="H2">
-        <v>12.3094014195598</v>
+        <v>2.029500203051834</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.313759984401869</v>
       </c>
       <c r="J2">
-        <v>6.543312757784101</v>
+        <v>11.9916401319284</v>
       </c>
       <c r="K2">
-        <v>23.12625870821977</v>
+        <v>22.66630931129778</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
+        <v>6.932060318581024</v>
       </c>
       <c r="N2">
-        <v>11.75447511171669</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>6.345012337184633</v>
+      </c>
+      <c r="Q2">
+        <v>22.11024987527295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>6.659947487199791</v>
+        <v>8.781458659537423</v>
       </c>
       <c r="D3">
-        <v>5.397248560882704</v>
+        <v>5.670228116934463</v>
       </c>
       <c r="E3">
-        <v>9.758247522594973</v>
+        <v>9.7054105046002</v>
       </c>
       <c r="F3">
-        <v>30.46679822402321</v>
+        <v>29.07435025765279</v>
       </c>
       <c r="G3">
-        <v>39.43655766553565</v>
+        <v>37.62055564405568</v>
       </c>
       <c r="H3">
-        <v>12.09866583127516</v>
+        <v>1.783728418466393</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.104605916914172</v>
       </c>
       <c r="J3">
-        <v>6.418523708525756</v>
+        <v>11.64706186018734</v>
       </c>
       <c r="K3">
-        <v>21.5120809603381</v>
+        <v>21.80447978680945</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
+        <v>6.815876114745466</v>
       </c>
       <c r="N3">
-        <v>12.01048415089414</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>6.261216128173085</v>
+      </c>
+      <c r="Q3">
+        <v>21.22759645601992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>6.331805058735267</v>
+        <v>8.608930861810572</v>
       </c>
       <c r="D4">
-        <v>5.256291065070274</v>
+        <v>5.611160623002484</v>
       </c>
       <c r="E4">
-        <v>9.497408208646581</v>
+        <v>9.550345763237187</v>
       </c>
       <c r="F4">
-        <v>29.76043371860472</v>
+        <v>28.25708389977832</v>
       </c>
       <c r="G4">
-        <v>38.31647377562806</v>
+        <v>36.30103060135666</v>
       </c>
       <c r="H4">
-        <v>11.98162493765306</v>
+        <v>1.627054508084032</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.971630386748685</v>
       </c>
       <c r="J4">
-        <v>6.345559993881252</v>
+        <v>11.43190580812904</v>
       </c>
       <c r="K4">
-        <v>20.46706762888897</v>
+        <v>21.25833714162496</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
+        <v>6.742264182341251</v>
       </c>
       <c r="N4">
-        <v>12.1702169460186</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>6.209586307617164</v>
+      </c>
+      <c r="Q4">
+        <v>20.66945815451449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>6.193977648818426</v>
+        <v>8.529468006325038</v>
       </c>
       <c r="D5">
-        <v>5.198234559803658</v>
+        <v>5.587369109857388</v>
       </c>
       <c r="E5">
-        <v>9.390744918131196</v>
+        <v>9.484526771297991</v>
       </c>
       <c r="F5">
-        <v>29.4771591284488</v>
+        <v>27.90869602630523</v>
       </c>
       <c r="G5">
-        <v>37.86489961948261</v>
+        <v>35.73428280214815</v>
       </c>
       <c r="H5">
-        <v>11.93694043034939</v>
+        <v>1.561215421803133</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.916464597326852</v>
       </c>
       <c r="J5">
-        <v>6.316742134392639</v>
+        <v>11.34038371754316</v>
       </c>
       <c r="K5">
-        <v>20.02750409019943</v>
+        <v>21.02226768659128</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
+        <v>6.710660003250599</v>
       </c>
       <c r="N5">
-        <v>12.23599554443729</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>6.1895387997708</v>
+      </c>
+      <c r="Q5">
+        <v>20.43101808747664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>6.170841856490958</v>
+        <v>8.507407781458308</v>
       </c>
       <c r="D6">
-        <v>5.188559456879728</v>
+        <v>5.583723366678266</v>
       </c>
       <c r="E6">
-        <v>9.373015303809238</v>
+        <v>9.471625687277015</v>
       </c>
       <c r="F6">
-        <v>29.43040457285386</v>
+        <v>27.83911824912248</v>
       </c>
       <c r="G6">
-        <v>37.79022409449085</v>
+        <v>35.62004560310344</v>
       </c>
       <c r="H6">
-        <v>11.92969953206095</v>
+        <v>1.571842929210073</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.907646790194534</v>
       </c>
       <c r="J6">
-        <v>6.312012104818095</v>
+        <v>11.32140932660647</v>
       </c>
       <c r="K6">
-        <v>19.9536822402925</v>
+        <v>20.97119358264432</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
+        <v>6.704101273358834</v>
       </c>
       <c r="N6">
-        <v>12.24696079578826</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>6.187473366492187</v>
+      </c>
+      <c r="Q6">
+        <v>20.38238237520299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>6.32996297176514</v>
+        <v>8.58417851732964</v>
       </c>
       <c r="D7">
-        <v>5.255510483431696</v>
+        <v>5.611663985087987</v>
       </c>
       <c r="E7">
-        <v>9.495971024796122</v>
+        <v>9.544299730411709</v>
       </c>
       <c r="F7">
-        <v>29.75659455558559</v>
+        <v>28.22177758397268</v>
       </c>
       <c r="G7">
-        <v>38.31036335092896</v>
+        <v>36.24154113054347</v>
       </c>
       <c r="H7">
-        <v>11.98101024716613</v>
+        <v>1.624455166070043</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.971658471284235</v>
       </c>
       <c r="J7">
-        <v>6.345167645552349</v>
+        <v>11.42057202049407</v>
       </c>
       <c r="K7">
-        <v>20.46119524518756</v>
+        <v>21.22376250011541</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
+        <v>6.738378559425391</v>
       </c>
       <c r="N7">
-        <v>12.17110122073921</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>6.212757925149504</v>
+      </c>
+      <c r="Q7">
+        <v>20.64247362979763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
-        <v>6.99622875608739</v>
+        <v>8.928300287270648</v>
       </c>
       <c r="D8">
-        <v>5.545354863804085</v>
+        <v>5.734406317686054</v>
       </c>
       <c r="E8">
-        <v>10.03496404661892</v>
+        <v>9.860506668423252</v>
       </c>
       <c r="F8">
-        <v>31.23557398226627</v>
+        <v>29.88604466079263</v>
       </c>
       <c r="G8">
-        <v>40.64718091644485</v>
+        <v>38.91739647395321</v>
       </c>
       <c r="H8">
-        <v>12.23412054903588</v>
+        <v>1.943758257501667</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.243022419132934</v>
       </c>
       <c r="J8">
-        <v>6.499523967852201</v>
+        <v>11.86069753834263</v>
       </c>
       <c r="K8">
-        <v>22.58077978819717</v>
+        <v>22.33305426512531</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
+        <v>6.888017148264401</v>
       </c>
       <c r="N8">
-        <v>11.84224853782329</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>6.320655107484312</v>
+      </c>
+      <c r="Q8">
+        <v>21.77938945451056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>8.177738008294982</v>
+        <v>9.577885959303345</v>
       </c>
       <c r="D9">
-        <v>6.089405275037048</v>
+        <v>5.973461006422276</v>
       </c>
       <c r="E9">
-        <v>11.07175692162301</v>
+        <v>10.45282926442367</v>
       </c>
       <c r="F9">
-        <v>34.26542819899636</v>
+        <v>32.98177719510726</v>
       </c>
       <c r="G9">
-        <v>45.35432355590139</v>
+        <v>43.79829253525507</v>
       </c>
       <c r="H9">
-        <v>12.83251625539952</v>
+        <v>2.528040946487769</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.739764847085546</v>
       </c>
       <c r="J9">
-        <v>6.831453307623035</v>
+        <v>12.70831397554911</v>
       </c>
       <c r="K9">
-        <v>26.31717398204475</v>
+        <v>24.41614329055184</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
+        <v>7.169005447229626</v>
       </c>
       <c r="N9">
-        <v>11.21526267722371</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>6.524569478881192</v>
+      </c>
+      <c r="Q9">
+        <v>23.90946926094054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>8.973663443583519</v>
+        <v>9.956585894493566</v>
       </c>
       <c r="D10">
-        <v>6.471448222512014</v>
+        <v>6.116611944278428</v>
       </c>
       <c r="E10">
-        <v>11.81664764071056</v>
+        <v>10.76641234113112</v>
       </c>
       <c r="F10">
-        <v>36.56332832105361</v>
+        <v>34.94107474902818</v>
       </c>
       <c r="G10">
-        <v>48.87567981513762</v>
+        <v>46.87167093549746</v>
       </c>
       <c r="H10">
-        <v>13.33980770802001</v>
+        <v>2.918184022229576</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.076665134024634</v>
       </c>
       <c r="J10">
-        <v>7.093593598664964</v>
+        <v>13.25940986492548</v>
       </c>
       <c r="K10">
-        <v>28.81751067641922</v>
+        <v>25.729503598869</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
+        <v>7.316591157508266</v>
       </c>
       <c r="N10">
-        <v>10.76209499367177</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>6.622664366807999</v>
+      </c>
+      <c r="Q10">
+        <v>25.27243738146045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>9.321082454740798</v>
+        <v>9.696544849417386</v>
       </c>
       <c r="D11">
-        <v>6.641010141763381</v>
+        <v>5.910021445944363</v>
       </c>
       <c r="E11">
-        <v>12.15134578527696</v>
+        <v>10.1093943145706</v>
       </c>
       <c r="F11">
-        <v>37.62402369987627</v>
+        <v>34.44894576559415</v>
       </c>
       <c r="G11">
-        <v>50.49093308193552</v>
+        <v>46.44158994639914</v>
       </c>
       <c r="H11">
-        <v>13.58648115694535</v>
+        <v>3.601128400342628</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.160782063501697</v>
       </c>
       <c r="J11">
-        <v>7.21697727098239</v>
+        <v>13.12562974919972</v>
       </c>
       <c r="K11">
-        <v>29.90456735402414</v>
+        <v>25.37025146200332</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
+        <v>7.008120281618028</v>
       </c>
       <c r="N11">
-        <v>10.55672795987902</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>6.250027336201774</v>
+      </c>
+      <c r="Q11">
+        <v>25.02088873914175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>9.450624919300202</v>
+        <v>9.436937252879817</v>
       </c>
       <c r="D12">
-        <v>6.704589127256383</v>
+        <v>5.706789804412871</v>
       </c>
       <c r="E12">
-        <v>12.27747591618543</v>
+        <v>9.542200381871872</v>
       </c>
       <c r="F12">
-        <v>38.02796255347161</v>
+        <v>33.6484653982491</v>
       </c>
       <c r="G12">
-        <v>51.10464633911238</v>
+        <v>45.48920209660965</v>
       </c>
       <c r="H12">
-        <v>13.68228421737838</v>
+        <v>4.673721344498715</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.164822454442656</v>
       </c>
       <c r="J12">
-        <v>7.264313505575775</v>
+        <v>12.90516504325364</v>
       </c>
       <c r="K12">
-        <v>30.30921591448931</v>
+        <v>24.82372249119589</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
+        <v>6.757188620062414</v>
       </c>
       <c r="N12">
-        <v>10.47899764120192</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>5.953186418828025</v>
+      </c>
+      <c r="Q12">
+        <v>24.54482190602882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>9.422813847632209</v>
+        <v>9.127081411384854</v>
       </c>
       <c r="D13">
-        <v>6.690924546484432</v>
+        <v>5.494333542405863</v>
       </c>
       <c r="E13">
-        <v>12.25033878446378</v>
+        <v>9.006981276989402</v>
       </c>
       <c r="F13">
-        <v>37.94086387297115</v>
+        <v>32.50217168614575</v>
       </c>
       <c r="G13">
-        <v>50.97237736599307</v>
+        <v>43.98370478547171</v>
       </c>
       <c r="H13">
-        <v>13.66154305538492</v>
+        <v>5.869951645403612</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.108339311458905</v>
       </c>
       <c r="J13">
-        <v>7.254091139508295</v>
+        <v>12.5865694531664</v>
       </c>
       <c r="K13">
-        <v>30.22237459855261</v>
+        <v>24.0464000236374</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
+        <v>6.532995421968245</v>
       </c>
       <c r="N13">
-        <v>10.49573783591468</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>5.707729684212166</v>
+      </c>
+      <c r="Q13">
+        <v>23.82411306979341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
-        <v>9.331779883741993</v>
+        <v>8.882489572244172</v>
       </c>
       <c r="D14">
-        <v>6.646253551365581</v>
+        <v>5.342839925166605</v>
       </c>
       <c r="E14">
-        <v>12.16173487287057</v>
+        <v>8.659558604392721</v>
       </c>
       <c r="F14">
-        <v>37.65720968323799</v>
+        <v>31.52305182080925</v>
       </c>
       <c r="G14">
-        <v>50.5413812698899</v>
+        <v>42.64710072976336</v>
       </c>
       <c r="H14">
-        <v>13.59431431837657</v>
+        <v>6.752801254454551</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.041997920174079</v>
       </c>
       <c r="J14">
-        <v>7.220859223061542</v>
+        <v>12.31413605471482</v>
       </c>
       <c r="K14">
-        <v>29.93799675774517</v>
+        <v>23.3824794752771</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
+        <v>6.395324174657569</v>
       </c>
       <c r="N14">
-        <v>10.55033273421929</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>5.570810100881669</v>
+      </c>
+      <c r="Q14">
+        <v>23.19535462794164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
-        <v>9.275759003449162</v>
+        <v>8.804581810360903</v>
       </c>
       <c r="D15">
-        <v>6.618808679807603</v>
+        <v>5.304015774063837</v>
       </c>
       <c r="E15">
-        <v>12.10738255949792</v>
+        <v>8.574855751018845</v>
       </c>
       <c r="F15">
-        <v>37.48376319453523</v>
+        <v>31.20024159773577</v>
       </c>
       <c r="G15">
-        <v>50.27765719727159</v>
+        <v>42.18426561973764</v>
       </c>
       <c r="H15">
-        <v>13.55344979206908</v>
+        <v>6.953165699126436</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.012852910170801</v>
       </c>
       <c r="J15">
-        <v>7.200584289448485</v>
+        <v>12.22379209130849</v>
       </c>
       <c r="K15">
-        <v>29.7629036970761</v>
+        <v>23.16106219005435</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
+        <v>6.362233262039362</v>
       </c>
       <c r="N15">
-        <v>10.58377627371839</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>5.542972467322257</v>
+      </c>
+      <c r="Q15">
+        <v>22.98194510612844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>8.950671407427494</v>
+        <v>8.687448106239582</v>
       </c>
       <c r="D16">
-        <v>6.460279720063309</v>
+        <v>5.284100880539417</v>
       </c>
       <c r="E16">
-        <v>11.794688878481</v>
+        <v>8.537962249702726</v>
       </c>
       <c r="F16">
-        <v>36.49432242881811</v>
+        <v>30.53172009844588</v>
       </c>
       <c r="G16">
-        <v>48.77039610571654</v>
+        <v>41.08091769516724</v>
       </c>
       <c r="H16">
-        <v>13.32401587099452</v>
+        <v>6.670745558284663</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.881981673980825</v>
       </c>
       <c r="J16">
-        <v>7.085614858362662</v>
+        <v>12.03786364736041</v>
       </c>
       <c r="K16">
-        <v>28.74547605345391</v>
+        <v>22.71264477471257</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
+        <v>6.340899516865321</v>
       </c>
       <c r="N16">
-        <v>10.77552569821296</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>5.550666786367879</v>
+      </c>
+      <c r="Q16">
+        <v>22.50533968798546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>8.747548990717718</v>
+        <v>8.727046461217522</v>
       </c>
       <c r="D17">
-        <v>6.361925055016544</v>
+        <v>5.349296327492302</v>
       </c>
       <c r="E17">
-        <v>11.60177890130863</v>
+        <v>8.687474142850823</v>
       </c>
       <c r="F17">
-        <v>35.89129020929976</v>
+        <v>30.55380652436298</v>
       </c>
       <c r="G17">
-        <v>47.84921261673914</v>
+        <v>40.96530580632874</v>
       </c>
       <c r="H17">
-        <v>13.18741118900564</v>
+        <v>5.933774372027803</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.816546749441611</v>
       </c>
       <c r="J17">
-        <v>7.01615532285278</v>
+        <v>12.04303429749379</v>
       </c>
       <c r="K17">
-        <v>28.10858630717814</v>
+        <v>22.72967121317572</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
+        <v>6.393250161393642</v>
       </c>
       <c r="N17">
-        <v>10.89330673395029</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>5.623863979255084</v>
+      </c>
+      <c r="Q17">
+        <v>22.48235355318727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
-        <v>8.629333465485672</v>
+        <v>8.928106258662293</v>
       </c>
       <c r="D18">
-        <v>6.304956510053571</v>
+        <v>5.49798961368874</v>
       </c>
       <c r="E18">
-        <v>11.49043045008021</v>
+        <v>9.05660471521553</v>
       </c>
       <c r="F18">
-        <v>35.54587979925627</v>
+        <v>31.19557342334279</v>
       </c>
       <c r="G18">
-        <v>47.3206145985351</v>
+        <v>41.7309222195989</v>
       </c>
       <c r="H18">
-        <v>13.11032988041045</v>
+        <v>4.773202973015703</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.801063437470054</v>
       </c>
       <c r="J18">
-        <v>6.976591736357348</v>
+        <v>12.21965037936873</v>
       </c>
       <c r="K18">
-        <v>27.73750815392215</v>
+        <v>23.17257079822124</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
+        <v>6.540583936742468</v>
       </c>
       <c r="N18">
-        <v>10.96112963413741</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>5.791410688289213</v>
+      </c>
+      <c r="Q18">
+        <v>22.86476720625146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>8.589067281704219</v>
+        <v>9.217161948953308</v>
       </c>
       <c r="D19">
-        <v>6.285600480313833</v>
+        <v>5.709048888792765</v>
       </c>
       <c r="E19">
-        <v>11.45266333089027</v>
+        <v>9.618518842927907</v>
       </c>
       <c r="F19">
-        <v>35.42917603490744</v>
+        <v>32.22519033735735</v>
       </c>
       <c r="G19">
-        <v>47.1418521162645</v>
+        <v>43.04905948093798</v>
       </c>
       <c r="H19">
-        <v>13.0844843395535</v>
+        <v>3.541013458223517</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.833682111905606</v>
       </c>
       <c r="J19">
-        <v>6.963262300861134</v>
+        <v>12.50061905077911</v>
       </c>
       <c r="K19">
-        <v>27.61104351856094</v>
+        <v>23.86619829035055</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+        <v>6.782244794796383</v>
       </c>
       <c r="N19">
-        <v>10.98410893286314</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>6.067243092950579</v>
+      </c>
+      <c r="Q19">
+        <v>23.49775124790791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>8.769314429312118</v>
+        <v>9.792762615880294</v>
       </c>
       <c r="D20">
-        <v>6.372436409361478</v>
+        <v>6.080122342163285</v>
       </c>
       <c r="E20">
-        <v>11.62235522296755</v>
+        <v>10.66695437713047</v>
       </c>
       <c r="F20">
-        <v>35.95533499904968</v>
+        <v>34.34937316684512</v>
       </c>
       <c r="G20">
-        <v>47.94714510380874</v>
+        <v>45.94343668472761</v>
       </c>
       <c r="H20">
-        <v>13.2017980385378</v>
+        <v>2.810985131401131</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.991860806770196</v>
       </c>
       <c r="J20">
-        <v>7.023509166962767</v>
+        <v>13.0866710835811</v>
       </c>
       <c r="K20">
-        <v>28.1768748348475</v>
+        <v>25.30291227901333</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+        <v>7.26675165937984</v>
       </c>
       <c r="N20">
-        <v>10.88076115162194</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>6.604731570378333</v>
+      </c>
+      <c r="Q20">
+        <v>24.85385152947428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
-        <v>9.35857276679196</v>
+        <v>10.15740906691394</v>
       </c>
       <c r="D21">
-        <v>6.659391745065432</v>
+        <v>6.23828225667734</v>
       </c>
       <c r="E21">
-        <v>12.18777662655552</v>
+        <v>11.05059710373357</v>
       </c>
       <c r="F21">
-        <v>37.74046305736842</v>
+        <v>36.05827296443948</v>
       </c>
       <c r="G21">
-        <v>50.66791784488004</v>
+        <v>48.54767283691886</v>
       </c>
       <c r="H21">
-        <v>13.61399517180625</v>
+        <v>3.124288545698901</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.256041353255992</v>
       </c>
       <c r="J21">
-        <v>7.230603407183946</v>
+        <v>13.57236510823829</v>
       </c>
       <c r="K21">
-        <v>30.02171322280372</v>
+        <v>26.4581659981374</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
+        <v>7.449203007416913</v>
       </c>
       <c r="N21">
-        <v>10.53429649222205</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>6.7581466184223</v>
+      </c>
+      <c r="Q21">
+        <v>26.02958336396513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
-        <v>9.731975213073877</v>
+        <v>10.38983932985618</v>
       </c>
       <c r="D22">
-        <v>6.843255256820036</v>
+        <v>6.323904355140064</v>
       </c>
       <c r="E22">
-        <v>12.55374989754415</v>
+        <v>11.25337790970239</v>
       </c>
       <c r="F22">
-        <v>38.9205104523139</v>
+        <v>37.09715574950609</v>
       </c>
       <c r="G22">
-        <v>52.45822404866749</v>
+        <v>50.14110622681559</v>
       </c>
       <c r="H22">
-        <v>13.89739802740376</v>
+        <v>3.319556560938797</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.420372619204088</v>
       </c>
       <c r="J22">
-        <v>7.369541477225755</v>
+        <v>13.87341752086269</v>
       </c>
       <c r="K22">
-        <v>31.18677448117151</v>
+        <v>27.17179254659828</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
+        <v>7.546840452736012</v>
       </c>
       <c r="N22">
-        <v>10.30804229325114</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>6.827193317536048</v>
+      </c>
+      <c r="Q22">
+        <v>26.75338670591628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
-        <v>9.533723080826602</v>
+        <v>10.29033582615584</v>
       </c>
       <c r="D23">
-        <v>6.745465309337859</v>
+        <v>6.277330065899307</v>
       </c>
       <c r="E23">
-        <v>12.35874799904022</v>
+        <v>11.15084091482408</v>
       </c>
       <c r="F23">
-        <v>38.28942964655325</v>
+        <v>36.57445633680501</v>
       </c>
       <c r="G23">
-        <v>51.50151428762331</v>
+        <v>49.34280680257233</v>
       </c>
       <c r="H23">
-        <v>13.74482038011414</v>
+        <v>3.217463196441367</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.331944674588517</v>
       </c>
       <c r="J23">
-        <v>7.295051026315156</v>
+        <v>13.72347407396829</v>
       </c>
       <c r="K23">
-        <v>30.56859102988269</v>
+        <v>26.82315229610905</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
+        <v>7.498567515801134</v>
       </c>
       <c r="N23">
-        <v>10.42880826982943</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>6.786547094961469</v>
+      </c>
+      <c r="Q23">
+        <v>26.39167939108161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
-        <v>8.759478759401542</v>
+        <v>9.861227537732763</v>
       </c>
       <c r="D24">
-        <v>6.367685542262938</v>
+        <v>6.101503357946891</v>
       </c>
       <c r="E24">
-        <v>11.61305404303316</v>
+        <v>10.74480914783187</v>
       </c>
       <c r="F24">
-        <v>35.92637636393579</v>
+        <v>34.48926278586908</v>
       </c>
       <c r="G24">
-        <v>47.90286671130314</v>
+        <v>46.13494101183762</v>
       </c>
       <c r="H24">
-        <v>13.19528922114503</v>
+        <v>2.819648305703347</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.991686577311489</v>
       </c>
       <c r="J24">
-        <v>7.020183344073434</v>
+        <v>13.12841879655135</v>
       </c>
       <c r="K24">
-        <v>28.14601693988761</v>
+        <v>25.41509451104195</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
+        <v>7.305717497147793</v>
       </c>
       <c r="N24">
-        <v>10.88643266428344</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>6.637890502522444</v>
+      </c>
+      <c r="Q24">
+        <v>24.94676373832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
-        <v>7.871089868014279</v>
+        <v>9.369971014281083</v>
       </c>
       <c r="D25">
-        <v>5.945160264507845</v>
+        <v>5.910361574440172</v>
       </c>
       <c r="E25">
-        <v>10.79398584291631</v>
+        <v>10.28809426232268</v>
       </c>
       <c r="F25">
-        <v>33.43282941790388</v>
+        <v>32.12048943873293</v>
       </c>
       <c r="G25">
-        <v>44.06930642262529</v>
+        <v>42.44724375383334</v>
       </c>
       <c r="H25">
-        <v>12.65914583461639</v>
+        <v>2.371783624869551</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.610186700967362</v>
       </c>
       <c r="J25">
-        <v>6.738489496117605</v>
+        <v>12.466229277164</v>
       </c>
       <c r="K25">
-        <v>25.35023735113818</v>
+        <v>23.81838927556592</v>
       </c>
       <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
+        <v>7.089133832718638</v>
       </c>
       <c r="N25">
-        <v>11.38330153679007</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
+        <v>6.475648749555937</v>
+      </c>
+      <c r="Q25">
+        <v>23.31105585443101</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,989 +421,1139 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.049269854077963</v>
+        <v>7.624988209405538</v>
       </c>
       <c r="D2">
-        <v>5.76653322838024</v>
+        <v>5.797494635178246</v>
       </c>
       <c r="E2">
-        <v>9.950776176678239</v>
+        <v>9.635167136105597</v>
       </c>
       <c r="F2">
-        <v>30.36357434896576</v>
+        <v>28.74980500975405</v>
       </c>
       <c r="G2">
-        <v>39.68065027255957</v>
+        <v>36.52697078678334</v>
       </c>
       <c r="H2">
-        <v>2.029500203051834</v>
+        <v>1.978940744000978</v>
       </c>
       <c r="I2">
-        <v>3.313759984401869</v>
+        <v>3.27495432094207</v>
       </c>
       <c r="J2">
-        <v>11.9916401319284</v>
+        <v>11.93512299167687</v>
       </c>
       <c r="K2">
-        <v>22.66630931129778</v>
+        <v>20.95474129335365</v>
       </c>
       <c r="L2">
-        <v>6.932060318581024</v>
+        <v>17.58952374626887</v>
+      </c>
+      <c r="M2">
+        <v>13.87043317829592</v>
       </c>
       <c r="N2">
-        <v>6.345012337184633</v>
-      </c>
-      <c r="Q2">
-        <v>22.11024987527295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>6.721077652191354</v>
+      </c>
+      <c r="P2">
+        <v>6.614780426880045</v>
+      </c>
+      <c r="S2">
+        <v>20.85711779295142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.781458659537423</v>
+        <v>7.46129008147403</v>
       </c>
       <c r="D3">
-        <v>5.670228116934463</v>
+        <v>5.700625320941721</v>
       </c>
       <c r="E3">
-        <v>9.7054105046002</v>
+        <v>9.425947779387876</v>
       </c>
       <c r="F3">
-        <v>29.07435025765279</v>
+        <v>27.62402172878687</v>
       </c>
       <c r="G3">
-        <v>37.62055564405568</v>
+        <v>34.71779450648458</v>
       </c>
       <c r="H3">
-        <v>1.783728418466393</v>
+        <v>1.758602391810118</v>
       </c>
       <c r="I3">
-        <v>3.104605916914172</v>
+        <v>3.095822183400343</v>
       </c>
       <c r="J3">
-        <v>11.64706186018734</v>
+        <v>11.62872610569294</v>
       </c>
       <c r="K3">
-        <v>21.80447978680945</v>
+        <v>20.26027591021855</v>
       </c>
       <c r="L3">
-        <v>6.815876114745466</v>
+        <v>17.30695840706462</v>
+      </c>
+      <c r="M3">
+        <v>13.06695483808431</v>
       </c>
       <c r="N3">
-        <v>6.261216128173085</v>
-      </c>
-      <c r="Q3">
-        <v>21.22759645601992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>6.62668159314907</v>
+      </c>
+      <c r="P3">
+        <v>6.515983178848274</v>
+      </c>
+      <c r="S3">
+        <v>20.10158348777118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.608930861810572</v>
+        <v>7.35496748498231</v>
       </c>
       <c r="D4">
-        <v>5.611160623002484</v>
+        <v>5.641426769329972</v>
       </c>
       <c r="E4">
-        <v>9.550345763237187</v>
+        <v>9.293689164665766</v>
       </c>
       <c r="F4">
-        <v>28.25708389977832</v>
+        <v>26.91024334794414</v>
       </c>
       <c r="G4">
-        <v>36.30103060135666</v>
+        <v>33.5602199688464</v>
       </c>
       <c r="H4">
-        <v>1.627054508084032</v>
+        <v>1.61796512491666</v>
       </c>
       <c r="I4">
-        <v>2.971630386748685</v>
+        <v>2.981939122199324</v>
       </c>
       <c r="J4">
-        <v>11.43190580812904</v>
+        <v>11.43566477014671</v>
       </c>
       <c r="K4">
-        <v>21.25833714162496</v>
+        <v>19.81971195797612</v>
       </c>
       <c r="L4">
-        <v>6.742264182341251</v>
+        <v>17.12160222458834</v>
+      </c>
+      <c r="M4">
+        <v>12.56863589555088</v>
       </c>
       <c r="N4">
-        <v>6.209586307617164</v>
-      </c>
-      <c r="Q4">
-        <v>20.66945815451449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>6.566660312629505</v>
+      </c>
+      <c r="P4">
+        <v>6.455467251342443</v>
+      </c>
+      <c r="S4">
+        <v>19.62364392384417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8.529468006325038</v>
+        <v>7.304941091943505</v>
       </c>
       <c r="D5">
-        <v>5.587369109857388</v>
+        <v>5.617656445579035</v>
       </c>
       <c r="E5">
-        <v>9.484526771297991</v>
+        <v>9.237394564556361</v>
       </c>
       <c r="F5">
-        <v>27.90869602630523</v>
+        <v>26.60502329655652</v>
       </c>
       <c r="G5">
-        <v>35.73428280214815</v>
+        <v>33.06167272193728</v>
       </c>
       <c r="H5">
-        <v>1.561215421803133</v>
+        <v>1.562353949416489</v>
       </c>
       <c r="I5">
-        <v>2.916464597326852</v>
+        <v>2.935021012385245</v>
       </c>
       <c r="J5">
-        <v>11.34038371754316</v>
+        <v>11.35290165247704</v>
       </c>
       <c r="K5">
-        <v>21.02226768659128</v>
+        <v>19.62770573638336</v>
       </c>
       <c r="L5">
-        <v>6.710660003250599</v>
+        <v>17.03596948372626</v>
+      </c>
+      <c r="M5">
+        <v>12.35823951627904</v>
       </c>
       <c r="N5">
-        <v>6.1895387997708</v>
-      </c>
-      <c r="Q5">
-        <v>20.43101808747664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>6.540731020149478</v>
+      </c>
+      <c r="P5">
+        <v>6.431983409149983</v>
+      </c>
+      <c r="S5">
+        <v>19.41860469320531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>8.507407781458308</v>
+        <v>7.290175666766675</v>
       </c>
       <c r="D6">
-        <v>5.583723366678266</v>
+        <v>5.614039353712218</v>
       </c>
       <c r="E6">
-        <v>9.471625687277015</v>
+        <v>9.226188381187946</v>
       </c>
       <c r="F6">
-        <v>27.83911824912248</v>
+        <v>26.54299023102695</v>
       </c>
       <c r="G6">
-        <v>35.62004560310344</v>
+        <v>32.95922095838645</v>
       </c>
       <c r="H6">
-        <v>1.571842929210073</v>
+        <v>1.573097526799967</v>
       </c>
       <c r="I6">
-        <v>2.907646790194534</v>
+        <v>2.927985370904038</v>
       </c>
       <c r="J6">
-        <v>11.32140932660647</v>
+        <v>11.33550524119298</v>
       </c>
       <c r="K6">
-        <v>20.97119358264432</v>
+        <v>19.58448183284154</v>
       </c>
       <c r="L6">
-        <v>6.704101273358834</v>
+        <v>17.01287992908291</v>
+      </c>
+      <c r="M6">
+        <v>12.31496537232455</v>
       </c>
       <c r="N6">
-        <v>6.187473366492187</v>
-      </c>
-      <c r="Q6">
-        <v>20.38238237520299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>6.535224569916465</v>
+      </c>
+      <c r="P6">
+        <v>6.429470219021422</v>
+      </c>
+      <c r="S6">
+        <v>19.37583106090581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>8.58417851732964</v>
+        <v>7.338865940743531</v>
       </c>
       <c r="D7">
-        <v>5.611663985087987</v>
+        <v>5.644417267990379</v>
       </c>
       <c r="E7">
-        <v>9.544299730411709</v>
+        <v>9.288863339471012</v>
       </c>
       <c r="F7">
-        <v>28.22177758397268</v>
+        <v>26.85993851057376</v>
       </c>
       <c r="G7">
-        <v>36.24154113054347</v>
+        <v>33.60473368591457</v>
       </c>
       <c r="H7">
-        <v>1.624455166070043</v>
+        <v>1.614954843289935</v>
       </c>
       <c r="I7">
-        <v>2.971658471284235</v>
+        <v>2.982492541798323</v>
       </c>
       <c r="J7">
-        <v>11.42057202049407</v>
+        <v>11.36723332864433</v>
       </c>
       <c r="K7">
-        <v>21.22376250011541</v>
+        <v>19.77600872564173</v>
       </c>
       <c r="L7">
-        <v>6.738378559425391</v>
+        <v>17.08866037299702</v>
+      </c>
+      <c r="M7">
+        <v>12.53478347843202</v>
       </c>
       <c r="N7">
-        <v>6.212757925149504</v>
-      </c>
-      <c r="Q7">
-        <v>20.64247362979763</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>6.562723586224751</v>
+      </c>
+      <c r="P7">
+        <v>6.458675017334653</v>
+      </c>
+      <c r="S7">
+        <v>19.5838205948893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>8.928300287270648</v>
+        <v>7.553750863483784</v>
       </c>
       <c r="D8">
-        <v>5.734406317686054</v>
+        <v>5.773190405668484</v>
       </c>
       <c r="E8">
-        <v>9.860506668423252</v>
+        <v>9.560306262787778</v>
       </c>
       <c r="F8">
-        <v>29.88604466079263</v>
+        <v>28.27695925622388</v>
       </c>
       <c r="G8">
-        <v>38.91739647395321</v>
+        <v>36.16878193422763</v>
       </c>
       <c r="H8">
-        <v>1.943758257501667</v>
+        <v>1.900063337034983</v>
       </c>
       <c r="I8">
-        <v>3.243022419132934</v>
+        <v>3.213797718030906</v>
       </c>
       <c r="J8">
-        <v>11.86069753834263</v>
+        <v>11.63316176042699</v>
       </c>
       <c r="K8">
-        <v>22.33305426512531</v>
+        <v>20.64506760624496</v>
       </c>
       <c r="L8">
-        <v>6.888017148264401</v>
+        <v>17.43918849232398</v>
+      </c>
+      <c r="M8">
+        <v>13.5384073494908</v>
       </c>
       <c r="N8">
-        <v>6.320655107484312</v>
-      </c>
-      <c r="Q8">
-        <v>21.77938945451056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>6.683573424679262</v>
+      </c>
+      <c r="P8">
+        <v>6.584865512626253</v>
+      </c>
+      <c r="S8">
+        <v>20.52593944284518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9.577885959303345</v>
+        <v>7.951629853304389</v>
       </c>
       <c r="D9">
-        <v>5.973461006422276</v>
+        <v>6.016569140742938</v>
       </c>
       <c r="E9">
-        <v>10.45282926442367</v>
+        <v>10.06653660820042</v>
       </c>
       <c r="F9">
-        <v>32.98177719510726</v>
+        <v>30.97443458582127</v>
       </c>
       <c r="G9">
-        <v>43.79829253525507</v>
+        <v>40.51539538562006</v>
       </c>
       <c r="H9">
-        <v>2.528040946487769</v>
+        <v>2.422516862082615</v>
       </c>
       <c r="I9">
-        <v>3.739764847085546</v>
+        <v>3.637613932304757</v>
       </c>
       <c r="J9">
-        <v>12.70831397554911</v>
+        <v>12.33998933330182</v>
       </c>
       <c r="K9">
-        <v>24.41614329055184</v>
+        <v>22.32076211423265</v>
       </c>
       <c r="L9">
-        <v>7.169005447229626</v>
+        <v>18.10201052709572</v>
+      </c>
+      <c r="M9">
+        <v>15.51110832522186</v>
       </c>
       <c r="N9">
-        <v>6.524569478881192</v>
-      </c>
-      <c r="Q9">
-        <v>23.90946926094054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>6.910966934316716</v>
+      </c>
+      <c r="P9">
+        <v>6.827176086613989</v>
+      </c>
+      <c r="S9">
+        <v>22.34376774694325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.956585894493566</v>
+        <v>8.191481765113814</v>
       </c>
       <c r="D10">
-        <v>6.116611944278428</v>
+        <v>6.176007629652474</v>
       </c>
       <c r="E10">
-        <v>10.76641234113112</v>
+        <v>10.33043582816125</v>
       </c>
       <c r="F10">
-        <v>34.94107474902818</v>
+        <v>32.5933253174701</v>
       </c>
       <c r="G10">
-        <v>46.87167093549746</v>
+        <v>43.72810856332802</v>
       </c>
       <c r="H10">
-        <v>2.918184022229576</v>
+        <v>2.767593634972767</v>
       </c>
       <c r="I10">
-        <v>4.076665134024634</v>
+        <v>3.922781529271621</v>
       </c>
       <c r="J10">
-        <v>13.25940986492548</v>
+        <v>12.49478375881029</v>
       </c>
       <c r="K10">
-        <v>25.729503598869</v>
+        <v>23.31245699803725</v>
       </c>
       <c r="L10">
-        <v>7.316591157508266</v>
+        <v>18.41752883919631</v>
+      </c>
+      <c r="M10">
+        <v>16.76788088729047</v>
       </c>
       <c r="N10">
-        <v>6.622664366807999</v>
-      </c>
-      <c r="Q10">
-        <v>25.27243738146045</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>7.023955413558995</v>
+      </c>
+      <c r="P10">
+        <v>6.947003494998801</v>
+      </c>
+      <c r="S10">
+        <v>23.43233345337451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.696544849417386</v>
+        <v>8.065337724155247</v>
       </c>
       <c r="D11">
-        <v>5.910021445944363</v>
+        <v>5.988877820945896</v>
       </c>
       <c r="E11">
-        <v>10.1093943145706</v>
+        <v>9.706162761143659</v>
       </c>
       <c r="F11">
-        <v>34.44894576559415</v>
+        <v>31.92478285668809</v>
       </c>
       <c r="G11">
-        <v>46.44158994639914</v>
+        <v>44.32824395959522</v>
       </c>
       <c r="H11">
-        <v>3.601128400342628</v>
+        <v>3.467936282248376</v>
       </c>
       <c r="I11">
-        <v>4.160782063501697</v>
+        <v>3.992494375905136</v>
       </c>
       <c r="J11">
-        <v>13.12562974919972</v>
+        <v>11.74005654449929</v>
       </c>
       <c r="K11">
-        <v>25.37025146200332</v>
+        <v>22.83627739158393</v>
       </c>
       <c r="L11">
-        <v>7.008120281618028</v>
+        <v>17.89142370417295</v>
+      </c>
+      <c r="M11">
+        <v>16.60597925603317</v>
       </c>
       <c r="N11">
-        <v>6.250027336201774</v>
-      </c>
-      <c r="Q11">
-        <v>25.02088873914175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>6.745732457439919</v>
+      </c>
+      <c r="P11">
+        <v>6.52346579165948</v>
+      </c>
+      <c r="S11">
+        <v>23.02743347143813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.436937252879817</v>
+        <v>7.934770393478488</v>
       </c>
       <c r="D12">
-        <v>5.706789804412871</v>
+        <v>5.788298677785375</v>
       </c>
       <c r="E12">
-        <v>9.542200381871872</v>
+        <v>9.176771717704115</v>
       </c>
       <c r="F12">
-        <v>33.6484653982491</v>
+        <v>31.09470730946967</v>
       </c>
       <c r="G12">
-        <v>45.48920209660965</v>
+        <v>43.9307335060803</v>
       </c>
       <c r="H12">
-        <v>4.673721344498715</v>
+        <v>4.57207744840281</v>
       </c>
       <c r="I12">
-        <v>4.164822454442656</v>
+        <v>3.994596070258866</v>
       </c>
       <c r="J12">
-        <v>12.90516504325364</v>
+        <v>11.2656109321138</v>
       </c>
       <c r="K12">
-        <v>24.82372249119589</v>
+        <v>22.29132571397231</v>
       </c>
       <c r="L12">
-        <v>6.757188620062414</v>
+        <v>17.43269893401324</v>
+      </c>
+      <c r="M12">
+        <v>16.25533933795083</v>
       </c>
       <c r="N12">
-        <v>5.953186418828025</v>
-      </c>
-      <c r="Q12">
-        <v>24.54482190602882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>6.53187669362316</v>
+      </c>
+      <c r="P12">
+        <v>6.172622048726528</v>
+      </c>
+      <c r="S12">
+        <v>22.52096533988796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.127081411384854</v>
+        <v>7.766814959998585</v>
       </c>
       <c r="D13">
-        <v>5.494333542405863</v>
+        <v>5.561263588013087</v>
       </c>
       <c r="E13">
-        <v>9.006981276989402</v>
+        <v>8.686575008775851</v>
       </c>
       <c r="F13">
-        <v>32.50217168614575</v>
+        <v>30.0660427660664</v>
       </c>
       <c r="G13">
-        <v>43.98370478547171</v>
+        <v>42.45165413859787</v>
       </c>
       <c r="H13">
-        <v>5.869951645403612</v>
+        <v>5.795867737638709</v>
       </c>
       <c r="I13">
-        <v>4.108339311458905</v>
+        <v>3.948185333385386</v>
       </c>
       <c r="J13">
-        <v>12.5865694531664</v>
+        <v>11.07091757511607</v>
       </c>
       <c r="K13">
-        <v>24.0464000236374</v>
+        <v>21.63302458189514</v>
       </c>
       <c r="L13">
-        <v>6.532995421968245</v>
+        <v>16.97476349509979</v>
+      </c>
+      <c r="M13">
+        <v>15.71763393507413</v>
       </c>
       <c r="N13">
-        <v>5.707729684212166</v>
-      </c>
-      <c r="Q13">
-        <v>23.82411306979341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>6.35244166040891</v>
+      </c>
+      <c r="P13">
+        <v>5.868912168798348</v>
+      </c>
+      <c r="S13">
+        <v>21.89382232754058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>8.882489572244172</v>
+        <v>7.631534147870934</v>
       </c>
       <c r="D14">
-        <v>5.342839925166605</v>
+        <v>5.392941199822554</v>
       </c>
       <c r="E14">
-        <v>8.659558604392721</v>
+        <v>8.37600279220592</v>
       </c>
       <c r="F14">
-        <v>31.52305182080925</v>
+        <v>29.23574307092965</v>
       </c>
       <c r="G14">
-        <v>42.64710072976336</v>
+        <v>40.90299766225346</v>
       </c>
       <c r="H14">
-        <v>6.752801254454551</v>
+        <v>6.69465756342534</v>
       </c>
       <c r="I14">
-        <v>4.041997920174079</v>
+        <v>3.894565027286326</v>
       </c>
       <c r="J14">
-        <v>12.31413605471482</v>
+        <v>11.04732894840535</v>
       </c>
       <c r="K14">
-        <v>23.3824794752771</v>
+        <v>21.10591020255255</v>
       </c>
       <c r="L14">
-        <v>6.395324174657569</v>
+        <v>16.64299240173921</v>
+      </c>
+      <c r="M14">
+        <v>15.24440615938667</v>
       </c>
       <c r="N14">
-        <v>5.570810100881669</v>
-      </c>
-      <c r="Q14">
-        <v>23.19535462794164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>6.249120327653262</v>
+      </c>
+      <c r="P14">
+        <v>5.689679921481849</v>
+      </c>
+      <c r="S14">
+        <v>21.38636507210743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>8.804581810360903</v>
+        <v>7.586332433105529</v>
       </c>
       <c r="D15">
-        <v>5.304015774063837</v>
+        <v>5.347508842602611</v>
       </c>
       <c r="E15">
-        <v>8.574855751018845</v>
+        <v>8.30203581263911</v>
       </c>
       <c r="F15">
-        <v>31.20024159773577</v>
+        <v>28.97837539650488</v>
       </c>
       <c r="G15">
-        <v>42.18426561973764</v>
+        <v>40.29058557359026</v>
       </c>
       <c r="H15">
-        <v>6.953165699126436</v>
+        <v>6.899334240430822</v>
       </c>
       <c r="I15">
-        <v>4.012852910170801</v>
+        <v>3.871591957238282</v>
       </c>
       <c r="J15">
-        <v>12.22379209130849</v>
+        <v>11.08713086993697</v>
       </c>
       <c r="K15">
-        <v>23.16106219005435</v>
+        <v>20.94149077802197</v>
       </c>
       <c r="L15">
-        <v>6.362233262039362</v>
+        <v>16.55287380972973</v>
+      </c>
+      <c r="M15">
+        <v>15.07999416095231</v>
       </c>
       <c r="N15">
-        <v>5.542972467322257</v>
-      </c>
-      <c r="Q15">
-        <v>22.98194510612844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>6.225411466339544</v>
+      </c>
+      <c r="P15">
+        <v>5.652040969991019</v>
+      </c>
+      <c r="S15">
+        <v>21.22697464608767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>8.687448106239582</v>
+        <v>7.496163255651561</v>
       </c>
       <c r="D16">
-        <v>5.284100880539417</v>
+        <v>5.307002291784963</v>
       </c>
       <c r="E16">
-        <v>8.537962249702726</v>
+        <v>8.275806001343746</v>
       </c>
       <c r="F16">
-        <v>30.53172009844588</v>
+        <v>28.55768566603621</v>
       </c>
       <c r="G16">
-        <v>41.08091769516724</v>
+        <v>38.38892612895938</v>
       </c>
       <c r="H16">
-        <v>6.670745558284663</v>
+        <v>6.62595378432299</v>
       </c>
       <c r="I16">
-        <v>3.881981673980825</v>
+        <v>3.765414100396038</v>
       </c>
       <c r="J16">
-        <v>12.03786364736041</v>
+        <v>11.48041120909743</v>
       </c>
       <c r="K16">
-        <v>22.71264477471257</v>
+        <v>20.69401605485073</v>
       </c>
       <c r="L16">
-        <v>6.340899516865321</v>
+        <v>16.53232796019556</v>
+      </c>
+      <c r="M16">
+        <v>14.68860817159932</v>
       </c>
       <c r="N16">
-        <v>5.550666786367879</v>
-      </c>
-      <c r="Q16">
-        <v>22.50533968798546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>6.210806229773747</v>
+      </c>
+      <c r="P16">
+        <v>5.665872166868145</v>
+      </c>
+      <c r="S16">
+        <v>20.95756451149262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>8.727046461217522</v>
+        <v>7.49810329866098</v>
       </c>
       <c r="D17">
-        <v>5.349296327492302</v>
+        <v>5.367297668896381</v>
       </c>
       <c r="E17">
-        <v>8.687474142850823</v>
+        <v>8.412539926633421</v>
       </c>
       <c r="F17">
-        <v>30.55380652436298</v>
+        <v>28.6685993342734</v>
       </c>
       <c r="G17">
-        <v>40.96530580632874</v>
+        <v>37.90075046579064</v>
       </c>
       <c r="H17">
-        <v>5.933774372027803</v>
+        <v>5.889051877518539</v>
       </c>
       <c r="I17">
-        <v>3.816546749441611</v>
+        <v>3.71165235499719</v>
       </c>
       <c r="J17">
-        <v>12.04303429749379</v>
+        <v>11.72669916360418</v>
       </c>
       <c r="K17">
-        <v>22.72967121317572</v>
+        <v>20.77703614578677</v>
       </c>
       <c r="L17">
-        <v>6.393250161393642</v>
+        <v>16.68956102936536</v>
+      </c>
+      <c r="M17">
+        <v>14.63392086142096</v>
       </c>
       <c r="N17">
-        <v>5.623863979255084</v>
-      </c>
-      <c r="Q17">
-        <v>22.48235355318727</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>6.250264141680161</v>
+      </c>
+      <c r="P17">
+        <v>5.76568860197045</v>
+      </c>
+      <c r="S17">
+        <v>21.00992088286637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>8.928106258662293</v>
+        <v>7.593599649377607</v>
       </c>
       <c r="D18">
-        <v>5.49798961368874</v>
+        <v>5.518811249627076</v>
       </c>
       <c r="E18">
-        <v>9.05660471521553</v>
+        <v>8.747991946336855</v>
       </c>
       <c r="F18">
-        <v>31.19557342334279</v>
+        <v>29.30081825429728</v>
       </c>
       <c r="G18">
-        <v>41.7309222195989</v>
+        <v>38.44173248601413</v>
       </c>
       <c r="H18">
-        <v>4.773202973015703</v>
+        <v>4.718462211287451</v>
       </c>
       <c r="I18">
-        <v>3.801063437470054</v>
+        <v>3.697259910350977</v>
       </c>
       <c r="J18">
-        <v>12.21965037936873</v>
+        <v>11.98484578914167</v>
       </c>
       <c r="K18">
-        <v>23.17257079822124</v>
+        <v>21.19635359837606</v>
       </c>
       <c r="L18">
-        <v>6.540583936742468</v>
+        <v>17.050505755935</v>
+      </c>
+      <c r="M18">
+        <v>14.89551115939001</v>
       </c>
       <c r="N18">
-        <v>5.791410688289213</v>
-      </c>
-      <c r="Q18">
-        <v>22.86476720625146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>6.367289014271751</v>
+      </c>
+      <c r="P18">
+        <v>5.978271760869336</v>
+      </c>
+      <c r="S18">
+        <v>21.38755418626063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.217161948953308</v>
+        <v>7.745824944337966</v>
       </c>
       <c r="D19">
-        <v>5.709048888792765</v>
+        <v>5.736861303107766</v>
       </c>
       <c r="E19">
-        <v>9.618518842927907</v>
+        <v>9.265618156182242</v>
       </c>
       <c r="F19">
-        <v>32.22519033735735</v>
+        <v>30.25764685260907</v>
       </c>
       <c r="G19">
-        <v>43.04905948093798</v>
+        <v>39.59790252266392</v>
       </c>
       <c r="H19">
-        <v>3.541013458223517</v>
+        <v>3.461181670562419</v>
       </c>
       <c r="I19">
-        <v>3.833682111905606</v>
+        <v>3.724866858868032</v>
       </c>
       <c r="J19">
-        <v>12.50061905077911</v>
+        <v>12.25953584601729</v>
       </c>
       <c r="K19">
-        <v>23.86619829035055</v>
+        <v>21.80820395654073</v>
       </c>
       <c r="L19">
-        <v>6.782244794796383</v>
+        <v>17.51607125922183</v>
+      </c>
+      <c r="M19">
+        <v>15.35370478491046</v>
       </c>
       <c r="N19">
-        <v>6.067243092950579</v>
-      </c>
-      <c r="Q19">
-        <v>23.49775124790791</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>6.568729330637474</v>
+      </c>
+      <c r="P19">
+        <v>6.30877276461948</v>
+      </c>
+      <c r="S19">
+        <v>21.96470139296706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.792762615880294</v>
+        <v>8.078993874207594</v>
       </c>
       <c r="D20">
-        <v>6.080122342163285</v>
+        <v>6.127061471543706</v>
       </c>
       <c r="E20">
-        <v>10.66695437713047</v>
+        <v>10.24195866247438</v>
       </c>
       <c r="F20">
-        <v>34.34937316684512</v>
+        <v>32.14187458942612</v>
       </c>
       <c r="G20">
-        <v>45.94343668472761</v>
+        <v>42.47182186821119</v>
       </c>
       <c r="H20">
-        <v>2.810985131401131</v>
+        <v>2.674493035061876</v>
       </c>
       <c r="I20">
-        <v>3.991860806770196</v>
+        <v>3.85680767632906</v>
       </c>
       <c r="J20">
-        <v>13.0866710835811</v>
+        <v>12.60984301856879</v>
       </c>
       <c r="K20">
-        <v>25.30291227901333</v>
+        <v>23.00682614486387</v>
       </c>
       <c r="L20">
-        <v>7.26675165937984</v>
+        <v>18.30081371075586</v>
+      </c>
+      <c r="M20">
+        <v>16.40363325043077</v>
       </c>
       <c r="N20">
-        <v>6.604731570378333</v>
-      </c>
-      <c r="Q20">
-        <v>24.85385152947428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>6.985499764636771</v>
+      </c>
+      <c r="P20">
+        <v>6.924821735777213</v>
+      </c>
+      <c r="S20">
+        <v>23.12986257126125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>10.15740906691394</v>
+        <v>8.337435834405431</v>
       </c>
       <c r="D21">
-        <v>6.23828225667734</v>
+        <v>6.343723266447297</v>
       </c>
       <c r="E21">
-        <v>11.05059710373357</v>
+        <v>10.59631600248986</v>
       </c>
       <c r="F21">
-        <v>36.05827296443948</v>
+        <v>33.32200075349648</v>
       </c>
       <c r="G21">
-        <v>48.54767283691886</v>
+        <v>46.66812456590893</v>
       </c>
       <c r="H21">
-        <v>3.124288545698901</v>
+        <v>2.941976510252182</v>
       </c>
       <c r="I21">
-        <v>4.256041353255992</v>
+        <v>4.070651895465121</v>
       </c>
       <c r="J21">
-        <v>13.57236510823829</v>
+        <v>11.85056279471319</v>
       </c>
       <c r="K21">
-        <v>26.4581659981374</v>
+        <v>23.72529883144526</v>
       </c>
       <c r="L21">
-        <v>7.449203007416913</v>
+        <v>18.51702098204805</v>
+      </c>
+      <c r="M21">
+        <v>17.32858927004725</v>
       </c>
       <c r="N21">
-        <v>6.7581466184223</v>
-      </c>
-      <c r="Q21">
-        <v>26.02958336396513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>7.127230177417483</v>
+      </c>
+      <c r="P21">
+        <v>7.101005781561542</v>
+      </c>
+      <c r="S21">
+        <v>23.86424268837736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>10.38983932985618</v>
+        <v>8.509545098098592</v>
       </c>
       <c r="D22">
-        <v>6.323904355140064</v>
+        <v>6.471060967211526</v>
       </c>
       <c r="E22">
-        <v>11.25337790970239</v>
+        <v>10.78503535277942</v>
       </c>
       <c r="F22">
-        <v>37.09715574950609</v>
+        <v>34.01201520255617</v>
       </c>
       <c r="G22">
-        <v>50.14110622681559</v>
+        <v>49.37934004085579</v>
       </c>
       <c r="H22">
-        <v>3.319556560938797</v>
+        <v>3.108271665613396</v>
       </c>
       <c r="I22">
-        <v>4.420372619204088</v>
+        <v>4.201872581522901</v>
       </c>
       <c r="J22">
-        <v>13.87341752086269</v>
+        <v>11.29879510762206</v>
       </c>
       <c r="K22">
-        <v>27.17179254659828</v>
+        <v>24.15331000637016</v>
       </c>
       <c r="L22">
-        <v>7.546840452736012</v>
+        <v>18.63077538507497</v>
+      </c>
+      <c r="M22">
+        <v>17.89599064239032</v>
       </c>
       <c r="N22">
-        <v>6.827193317536048</v>
-      </c>
-      <c r="Q22">
-        <v>26.75338670591628</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>7.200739941339716</v>
+      </c>
+      <c r="P22">
+        <v>7.181208572706317</v>
+      </c>
+      <c r="S22">
+        <v>24.29512734597921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>10.29033582615584</v>
+        <v>8.430032320007399</v>
       </c>
       <c r="D23">
-        <v>6.277330065899307</v>
+        <v>6.395799153920306</v>
       </c>
       <c r="E23">
-        <v>11.15084091482408</v>
+        <v>10.68725438819851</v>
       </c>
       <c r="F23">
-        <v>36.57445633680501</v>
+        <v>33.7091733281438</v>
       </c>
       <c r="G23">
-        <v>49.34280680257233</v>
+        <v>47.7776375472801</v>
       </c>
       <c r="H23">
-        <v>3.217463196441367</v>
+        <v>3.022514105961619</v>
       </c>
       <c r="I23">
-        <v>4.331944674588517</v>
+        <v>4.130713941594621</v>
       </c>
       <c r="J23">
-        <v>13.72347407396829</v>
+        <v>11.72737179710404</v>
       </c>
       <c r="K23">
-        <v>26.82315229610905</v>
+        <v>23.97957340914421</v>
       </c>
       <c r="L23">
-        <v>7.498567515801134</v>
+        <v>18.6092570337096</v>
+      </c>
+      <c r="M23">
+        <v>17.63649408589086</v>
       </c>
       <c r="N23">
-        <v>6.786547094961469</v>
-      </c>
-      <c r="Q23">
-        <v>26.39167939108161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>7.165771957646588</v>
+      </c>
+      <c r="P23">
+        <v>7.134711911521226</v>
+      </c>
+      <c r="S23">
+        <v>24.1190224564919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.861227537732763</v>
+        <v>8.122102929738638</v>
       </c>
       <c r="D24">
-        <v>6.101503357946891</v>
+        <v>6.14866445995639</v>
       </c>
       <c r="E24">
-        <v>10.74480914783187</v>
+        <v>10.31579413650836</v>
       </c>
       <c r="F24">
-        <v>34.48926278586908</v>
+        <v>32.27663606019179</v>
       </c>
       <c r="G24">
-        <v>46.13494101183762</v>
+        <v>42.63567754106921</v>
       </c>
       <c r="H24">
-        <v>2.819648305703347</v>
+        <v>2.682282281278598</v>
       </c>
       <c r="I24">
-        <v>3.991686577311489</v>
+        <v>3.854062695871235</v>
       </c>
       <c r="J24">
-        <v>13.12841879655135</v>
+        <v>12.65796394465055</v>
       </c>
       <c r="K24">
-        <v>25.41509451104195</v>
+        <v>23.11179220636874</v>
       </c>
       <c r="L24">
-        <v>7.305717497147793</v>
+        <v>18.3827376691267</v>
+      </c>
+      <c r="M24">
+        <v>16.47995385356293</v>
       </c>
       <c r="N24">
-        <v>6.637890502522444</v>
-      </c>
-      <c r="Q24">
-        <v>24.94676373832</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>7.020332392539852</v>
+      </c>
+      <c r="P24">
+        <v>6.962031185424809</v>
+      </c>
+      <c r="S24">
+        <v>23.21893987487769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>9.369971014281083</v>
+        <v>7.819099529768936</v>
       </c>
       <c r="D25">
-        <v>5.910361574440172</v>
+        <v>5.948899023197519</v>
       </c>
       <c r="E25">
-        <v>10.28809426232268</v>
+        <v>9.923822110240799</v>
       </c>
       <c r="F25">
-        <v>32.12048943873293</v>
+        <v>30.24007243506552</v>
       </c>
       <c r="G25">
-        <v>42.44724375383334</v>
+        <v>39.17718649318943</v>
       </c>
       <c r="H25">
-        <v>2.371783624869551</v>
+        <v>2.28377491728744</v>
       </c>
       <c r="I25">
-        <v>3.610186700967362</v>
+        <v>3.529962398123971</v>
       </c>
       <c r="J25">
-        <v>12.466229277164</v>
+        <v>12.2135656288616</v>
       </c>
       <c r="K25">
-        <v>23.81838927556592</v>
+        <v>21.84655080346957</v>
       </c>
       <c r="L25">
-        <v>7.089133832718638</v>
+        <v>17.9069847043312</v>
+      </c>
+      <c r="M25">
+        <v>14.96071518949659</v>
       </c>
       <c r="N25">
-        <v>6.475648749555937</v>
-      </c>
-      <c r="Q25">
-        <v>23.31105585443101</v>
+        <v>6.846444962730986</v>
+      </c>
+      <c r="P25">
+        <v>6.76858615097017</v>
+      </c>
+      <c r="S25">
+        <v>21.84679178936104</v>
       </c>
     </row>
   </sheetData>
